--- a/archivos_listados.xlsx
+++ b/archivos_listados.xlsx
@@ -464,5796 +464,5796 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_MG_2690.jpg</t>
+          <t>MG_2690.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>_MG_2693.jpg</t>
+          <t>MG_2693.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>_MG_2694.jpg</t>
+          <t>MG_2694.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>_MG_2695.jpg</t>
+          <t>MG_2695.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>_MG_2696.jpg</t>
+          <t>MG_2696.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>_MG_2697.jpg</t>
+          <t>MG_2697.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>_MG_2698.jpg</t>
+          <t>MG_2698.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>_MG_2700.jpg</t>
+          <t>MG_2700.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>_MG_2701.jpg</t>
+          <t>MG_2701.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>_MG_2702.jpg</t>
+          <t>MG_2702.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>_MG_2703.jpg</t>
+          <t>MG_2703.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>_MG_2704.jpg</t>
+          <t>MG_2704.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>_MG_2705.jpg</t>
+          <t>MG_2705.jpg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>_MG_2706.jpg</t>
+          <t>MG_2706.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>_MG_2708.jpg</t>
+          <t>MG_2708.jpg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>_MG_2712.jpg</t>
+          <t>MG_2712.jpg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>_MG_2714.jpg</t>
+          <t>MG_2714.jpg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>_MG_2714_1.jpg</t>
+          <t>MG_2714_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>_MG_2715.jpg</t>
+          <t>MG_2715.jpg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>_MG_2716.jpg</t>
+          <t>MG_2716.jpg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>_MG_2717.jpg</t>
+          <t>MG_2717.jpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>_MG_2718.jpg</t>
+          <t>MG_2718.jpg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>_MG_2720.jpg</t>
+          <t>MG_2720.jpg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>_MG_2722.jpg</t>
+          <t>MG_2722.jpg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>_MG_2726.jpg</t>
+          <t>MG_2726.jpg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>_MG_2727.jpg</t>
+          <t>MG_2727.jpg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>_MG_2728.jpg</t>
+          <t>MG_2728.jpg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_MG_2729.jpg</t>
+          <t>MG_2729.jpg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_MG_2730.jpg</t>
+          <t>MG_2730.jpg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>_MG_2731.jpg</t>
+          <t>MG_2731.jpg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>_MG_2732.jpg</t>
+          <t>MG_2732.jpg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_MG_2732a.jpg</t>
+          <t>MG_2732a.jpg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>_MG_2733.jpg</t>
+          <t>MG_2733.jpg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>_MG_2733_1.jpg</t>
+          <t>MG_2733_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>_MG_2745.jpg</t>
+          <t>MG_2745.jpg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>_MG_2745_1.jpg</t>
+          <t>MG_2745_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>_MG_2746.jpg</t>
+          <t>MG_2746.jpg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_MG_2747.jpg</t>
+          <t>MG_2747.jpg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_MG_2748.jpg</t>
+          <t>MG_2748.jpg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>_MG_2749.jpg</t>
+          <t>MG_2749.jpg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>_MG_2750.jpg</t>
+          <t>MG_2750.jpg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>_MG_2751.jpg</t>
+          <t>MG_2751.jpg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_MG_2752.jpg</t>
+          <t>MG_2752.jpg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>_MG_2754.jpg</t>
+          <t>MG_2754.jpg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>_MG_2755.jpg</t>
+          <t>MG_2755.jpg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>_MG_2756.jpg</t>
+          <t>MG_2756.jpg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>_MG_2757.jpg</t>
+          <t>MG_2757.jpg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_MG_2758.jpg</t>
+          <t>MG_2758.jpg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>_MG_2760.jpg</t>
+          <t>MG_2760.jpg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_MG_2761.jpg</t>
+          <t>MG_2761.jpg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_MG_2762.jpg</t>
+          <t>MG_2762.jpg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_MG_2765.jpg</t>
+          <t>MG_2765.jpg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_MG_2766.jpg</t>
+          <t>MG_2766.jpg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_MG_2769.jpg</t>
+          <t>MG_2769.jpg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>_MG_2771.jpg</t>
+          <t>MG_2771.jpg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_MG_2773.jpg</t>
+          <t>MG_2773.jpg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>_MG_2774.jpg</t>
+          <t>MG_2774.jpg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>_MG_2775.jpg</t>
+          <t>MG_2775.jpg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>_MG_2776.jpg</t>
+          <t>MG_2776.jpg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>_MG_2777.jpg</t>
+          <t>MG_2777.jpg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>_MG_2778.jpg</t>
+          <t>MG_2778.jpg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>_MG_2779.jpg</t>
+          <t>MG_2779.jpg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>_MG_2780.jpg</t>
+          <t>MG_2780.jpg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>_MG_2781.jpg</t>
+          <t>MG_2781.jpg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>_MG_2782.jpg</t>
+          <t>MG_2782.jpg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>_MG_2783.jpg</t>
+          <t>MG_2783.jpg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>_MG_2784.jpg</t>
+          <t>MG_2784.jpg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>_MG_2785.jpg</t>
+          <t>MG_2785.jpg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>_MG_2786.jpg</t>
+          <t>MG_2786.jpg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>_MG_2787.jpg</t>
+          <t>MG_2787.jpg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>_MG_2788.jpg</t>
+          <t>MG_2788.jpg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>_MG_2789.jpg</t>
+          <t>MG_2789.jpg</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>_MG_2790.jpg</t>
+          <t>MG_2790.jpg</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>_MG_2791.jpg</t>
+          <t>MG_2791.jpg</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>_MG_2792.jpg</t>
+          <t>MG_2792.jpg</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>_MG_2792_1.jpg</t>
+          <t>MG_2792_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>_MG_2793_1.jpg</t>
+          <t>MG_2793_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>_MG_2795.jpg</t>
+          <t>MG_2795.jpg</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>_MG_2796.jpg</t>
+          <t>MG_2796.jpg</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>_MG_2797.jpg</t>
+          <t>MG_2797.jpg</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>_MG_2798.jpg</t>
+          <t>MG_2798.jpg</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>_MG_2799.jpg</t>
+          <t>MG_2799.jpg</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>_MG_2800.jpg</t>
+          <t>MG_2800.jpg</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>_MG_2801.jpg</t>
+          <t>MG_2801.jpg</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>_MG_2802.jpg</t>
+          <t>MG_2802.jpg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>_MG_2803.jpg</t>
+          <t>MG_2803.jpg</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>_MG_2804.jpg</t>
+          <t>MG_2804.jpg</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>_MG_2806.jpg</t>
+          <t>MG_2806.jpg</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>_MG_2807.jpg</t>
+          <t>MG_2807.jpg</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>_MG_2808.jpg</t>
+          <t>MG_2808.jpg</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>_MG_2809.jpg</t>
+          <t>MG_2809.jpg</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>_MG_2810.jpg</t>
+          <t>MG_2810.jpg</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>_MG_2811.jpg</t>
+          <t>MG_2811.jpg</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>_MG_2813.jpg</t>
+          <t>MG_2813.jpg</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>_MG_2814.jpg</t>
+          <t>MG_2814.jpg</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>_MG_2815.jpg</t>
+          <t>MG_2815.jpg</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>_MG_2816.jpg</t>
+          <t>MG_2816.jpg</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>_MG_2818.jpg</t>
+          <t>MG_2818.jpg</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>_MG_2819.jpg</t>
+          <t>MG_2819.jpg</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>_MG_2822.jpg</t>
+          <t>MG_2822.jpg</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>_MG_2826.jpg</t>
+          <t>MG_2826.jpg</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>_MG_2827.jpg</t>
+          <t>MG_2827.jpg</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>_MG_2829.jpg</t>
+          <t>MG_2829.jpg</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>_MG_2830.jpg</t>
+          <t>MG_2830.jpg</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>_MG_2834.jpg</t>
+          <t>MG_2834.jpg</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>_MG_2835.jpg</t>
+          <t>MG_2835.jpg</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>_MG_2836.jpg</t>
+          <t>MG_2836.jpg</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>_MG_2837.jpg</t>
+          <t>MG_2837.jpg</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>_MG_2838.jpg</t>
+          <t>MG_2838.jpg</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>_MG_2839.jpg</t>
+          <t>MG_2839.jpg</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>_MG_2840.jpg</t>
+          <t>MG_2840.jpg</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>_MG_2841.jpg</t>
+          <t>MG_2841.jpg</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>_MG_2842_1.jpg</t>
+          <t>MG_2842_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>_MG_2843.jpg</t>
+          <t>MG_2843.jpg</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>_MG_2844.jpg</t>
+          <t>MG_2844.jpg</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_MG_2845.jpg</t>
+          <t>MG_2845.jpg</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>_MG_2845_1.jpg</t>
+          <t>MG_2845_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>_MG_2848.jpg</t>
+          <t>MG_2848.jpg</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>_MG_2849.jpg</t>
+          <t>MG_2849.jpg</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>_MG_2850.jpg</t>
+          <t>MG_2850.jpg</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>_MG_2851.jpg</t>
+          <t>MG_2851.jpg</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>_MG_2853.jpg</t>
+          <t>MG_2853.jpg</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>_MG_2854.jpg</t>
+          <t>MG_2854.jpg</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>_MG_2855.jpg</t>
+          <t>MG_2855.jpg</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>_MG_2857.jpg</t>
+          <t>MG_2857.jpg</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>_MG_2858.jpg</t>
+          <t>MG_2858.jpg</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>_MG_2859.jpg</t>
+          <t>MG_2859.jpg</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>_MG_2860.jpg</t>
+          <t>MG_2860.jpg</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>_MG_2862.jpg</t>
+          <t>MG_2862.jpg</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>_MG_2863.jpg</t>
+          <t>MG_2863.jpg</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>_MG_2864.jpg</t>
+          <t>MG_2864.jpg</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>_MG_2865.jpg</t>
+          <t>MG_2865.jpg</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>_MG_2867.jpg</t>
+          <t>MG_2867.jpg</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>_MG_2868.jpg</t>
+          <t>MG_2868.jpg</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>_MG_2869.jpg</t>
+          <t>MG_2869.jpg</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>_MG_2870.jpg</t>
+          <t>MG_2870.jpg</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>_MG_2871.jpg</t>
+          <t>MG_2871.jpg</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>_MG_2872.jpg</t>
+          <t>MG_2872.jpg</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>_MG_2873.jpg</t>
+          <t>MG_2873.jpg</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>_MG_2874.jpg</t>
+          <t>MG_2874.jpg</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>_MG_2875.jpg</t>
+          <t>MG_2875.jpg</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>_MG_2876.jpg</t>
+          <t>MG_2876.jpg</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>_MG_2877.jpg</t>
+          <t>MG_2877.jpg</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>_MG_2878.jpg</t>
+          <t>MG_2878.jpg</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>_MG_2879.jpg</t>
+          <t>MG_2879.jpg</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>_MG_2881.jpg</t>
+          <t>MG_2881.jpg</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>_MG_2883.jpg</t>
+          <t>MG_2883.jpg</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>_MG_2885.jpg</t>
+          <t>MG_2885.jpg</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>_MG_2886.jpg</t>
+          <t>MG_2886.jpg</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>_MG_2887.jpg</t>
+          <t>MG_2887.jpg</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>_MG_2888.jpg</t>
+          <t>MG_2888.jpg</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>_MG_2890.jpg</t>
+          <t>MG_2890.jpg</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>_MG_2891_1.jpg</t>
+          <t>MG_2891_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>_MG_2892.jpg</t>
+          <t>MG_2892.jpg</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>_MG_2894.jpg</t>
+          <t>MG_2894.jpg</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>_MG_2895.jpg</t>
+          <t>MG_2895.jpg</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>_MG_2896.jpg</t>
+          <t>MG_2896.jpg</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>_MG_2898.jpg</t>
+          <t>MG_2898.jpg</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>_MG_2900.jpg</t>
+          <t>MG_2900.jpg</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>_MG_2909.jpg</t>
+          <t>MG_2909.jpg</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>_MG_2910.jpg</t>
+          <t>MG_2910.jpg</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>_MG_2912.jpg</t>
+          <t>MG_2912.jpg</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>_MG_2913.jpg</t>
+          <t>MG_2913.jpg</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>_MG_2914.jpg</t>
+          <t>MG_2914.jpg</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>_MG_2916.jpg</t>
+          <t>MG_2916.jpg</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>_MG_2917.jpg</t>
+          <t>MG_2917.jpg</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>_MG_2918.jpg</t>
+          <t>MG_2918.jpg</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>_MG_2920.jpg</t>
+          <t>MG_2920.jpg</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>_MG_2921.jpg</t>
+          <t>MG_2921.jpg</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>_MG_2922.jpg</t>
+          <t>MG_2922.jpg</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>_MG_2923.jpg</t>
+          <t>MG_2923.jpg</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>_MG_2924.jpg</t>
+          <t>MG_2924.jpg</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>_MG_2927.jpg</t>
+          <t>MG_2927.jpg</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>_MG_2927_1.jpg</t>
+          <t>MG_2927_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>_MG_2928.jpg</t>
+          <t>MG_2928.jpg</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>_MG_2929.jpg</t>
+          <t>MG_2929.jpg</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>_MG_2929_1.jpg</t>
+          <t>MG_2929_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>_MG_2930.jpg</t>
+          <t>MG_2930.jpg</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>_MG_2931.jpg</t>
+          <t>MG_2931.jpg</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_MG_2932.jpg</t>
+          <t>MG_2932.jpg</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>_MG_2933.jpg</t>
+          <t>MG_2933.jpg</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>_MG_2934.jpg</t>
+          <t>MG_2934.jpg</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>_MG_2966.jpg</t>
+          <t>MG_2966.jpg</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>_MG_2967.jpg</t>
+          <t>MG_2967.jpg</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>_MG_2968.jpg</t>
+          <t>MG_2968.jpg</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>_MG_2968_1.jpg</t>
+          <t>MG_2968_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>_MG_2970.jpg</t>
+          <t>MG_2970.jpg</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>_MG_2971.jpg</t>
+          <t>MG_2971.jpg</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>_MG_2973.jpg</t>
+          <t>MG_2973.jpg</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>_MG_2974.jpg</t>
+          <t>MG_2974.jpg</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>_MG_2975.jpg</t>
+          <t>MG_2975.jpg</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>_MG_2976.jpg</t>
+          <t>MG_2976.jpg</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>_MG_2977.jpg</t>
+          <t>MG_2977.jpg</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>_MG_2978.jpg</t>
+          <t>MG_2978.jpg</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>_MG_2979.jpg</t>
+          <t>MG_2979.jpg</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_MG_2980.jpg</t>
+          <t>MG_2980.jpg</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>_MG_2981.jpg</t>
+          <t>MG_2981.jpg</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>_MG_2982.jpg</t>
+          <t>MG_2982.jpg</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>_MG_2983.jpg</t>
+          <t>MG_2983.jpg</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>_MG_2984.jpg</t>
+          <t>MG_2984.jpg</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>_MG_2985.jpg</t>
+          <t>MG_2985.jpg</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>_MG_2986.jpg</t>
+          <t>MG_2986.jpg</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>_MG_2987.jpg</t>
+          <t>MG_2987.jpg</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>_MG_2989.jpg</t>
+          <t>MG_2989.jpg</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>_MG_2991.jpg</t>
+          <t>MG_2991.jpg</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>_MG_2992.jpg</t>
+          <t>MG_2992.jpg</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>_MG_2993.jpg</t>
+          <t>MG_2993.jpg</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>_MG_2994.jpg</t>
+          <t>MG_2994.jpg</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>_MG_2995.jpg</t>
+          <t>MG_2995.jpg</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>_MG_2998.jpg</t>
+          <t>MG_2998.jpg</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>_MG_2999.jpg</t>
+          <t>MG_2999.jpg</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>_MG_3000.jpg</t>
+          <t>MG_3000.jpg</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>_MG_3001.jpg</t>
+          <t>MG_3001.jpg</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>_MG_3002.jpg</t>
+          <t>MG_3002.jpg</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>_MG_3002_1.jpg</t>
+          <t>MG_3002_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>_MG_3003.jpg</t>
+          <t>MG_3003.jpg</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>_MG_3003_1.jpg</t>
+          <t>MG_3003_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>_MG_3004.jpg</t>
+          <t>MG_3004.jpg</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>_MG_3004_1.jpg</t>
+          <t>MG_3004_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>_MG_3006.jpg</t>
+          <t>MG_3006.jpg</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>_MG_3010.jpg</t>
+          <t>MG_3010.jpg</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>_MG_3011.jpg</t>
+          <t>MG_3011.jpg</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>_MG_3012_1.jpg</t>
+          <t>MG_3012_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>_MG_3013.jpg</t>
+          <t>MG_3013.jpg</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>_MG_3014.jpg</t>
+          <t>MG_3014.jpg</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>_MG_3014_1.jpg</t>
+          <t>MG_3014_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>_MG_3017.jpg</t>
+          <t>MG_3017.jpg</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>_MG_3018.jpg</t>
+          <t>MG_3018.jpg</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>_MG_3019.jpg</t>
+          <t>MG_3019.jpg</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>_MG_3020.jpg</t>
+          <t>MG_3020.jpg</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>_MG_3021.jpg</t>
+          <t>MG_3021.jpg</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>_MG_3022.jpg</t>
+          <t>MG_3022.jpg</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>_MG_3023.jpg</t>
+          <t>MG_3023.jpg</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>_MG_3025.jpg</t>
+          <t>MG_3025.jpg</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>_MG_3025_1.jpg</t>
+          <t>MG_3025_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_MG_3026.jpg</t>
+          <t>MG_3026.jpg</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>_MG_3027.jpg</t>
+          <t>MG_3027.jpg</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>_MG_3028.jpg</t>
+          <t>MG_3028.jpg</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>_MG_3029.jpg</t>
+          <t>MG_3029.jpg</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>_MG_3030.jpg</t>
+          <t>MG_3030.jpg</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>_MG_3031.jpg</t>
+          <t>MG_3031.jpg</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>_MG_3032.jpg</t>
+          <t>MG_3032.jpg</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>_MG_3034.jpg</t>
+          <t>MG_3034.jpg</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>_MG_3035.jpg</t>
+          <t>MG_3035.jpg</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>_MG_3036.jpg</t>
+          <t>MG_3036.jpg</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>_MG_3037.jpg</t>
+          <t>MG_3037.jpg</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>_MG_3038.jpg</t>
+          <t>MG_3038.jpg</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>_MG_3039.jpg</t>
+          <t>MG_3039.jpg</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>_MG_3040.jpg</t>
+          <t>MG_3040.jpg</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>_MG_3041.jpg</t>
+          <t>MG_3041.jpg</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>_MG_3042.jpg</t>
+          <t>MG_3042.jpg</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>_MG_3043.jpg</t>
+          <t>MG_3043.jpg</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>_MG_3044.jpg</t>
+          <t>MG_3044.jpg</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>_MG_3045.jpg</t>
+          <t>MG_3045.jpg</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>_MG_3046.jpg</t>
+          <t>MG_3046.jpg</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>_MG_3047.jpg</t>
+          <t>MG_3047.jpg</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>_MG_3048.jpg</t>
+          <t>MG_3048.jpg</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>_MG_3049.jpg</t>
+          <t>MG_3049.jpg</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>_MG_3050.jpg</t>
+          <t>MG_3050.jpg</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>_MG_3051.jpg</t>
+          <t>MG_3051.jpg</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>_MG_3052.jpg</t>
+          <t>MG_3052.jpg</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>_MG_3053.jpg</t>
+          <t>MG_3053.jpg</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>_MG_3054.jpg</t>
+          <t>MG_3054.jpg</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>_MG_3055.jpg</t>
+          <t>MG_3055.jpg</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>_MG_3056.jpg</t>
+          <t>MG_3056.jpg</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>_MG_3057.jpg</t>
+          <t>MG_3057.jpg</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>_MG_3059.jpg</t>
+          <t>MG_3059.jpg</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>_MG_3060.jpg</t>
+          <t>MG_3060.jpg</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>_MG_3061.jpg</t>
+          <t>MG_3061.jpg</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>_MG_3062.jpg</t>
+          <t>MG_3062.jpg</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>_MG_3063.jpg</t>
+          <t>MG_3063.jpg</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>_MG_3065.jpg</t>
+          <t>MG_3065.jpg</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>_MG_3066.jpg</t>
+          <t>MG_3066.jpg</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>_MG_3068.jpg</t>
+          <t>MG_3068.jpg</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>_MG_3071.jpg</t>
+          <t>MG_3071.jpg</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>_MG_3072.jpg</t>
+          <t>MG_3072.jpg</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>_MG_3073.jpg</t>
+          <t>MG_3073.jpg</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>_MG_3073_1.jpg</t>
+          <t>MG_3073_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>_MG_3075.jpg</t>
+          <t>MG_3075.jpg</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_MG_3076.jpg</t>
+          <t>MG_3076.jpg</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>_MG_3076_1.jpg</t>
+          <t>MG_3076_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>_MG_3078.jpg</t>
+          <t>MG_3078.jpg</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>_MG_3078_1.jpg</t>
+          <t>MG_3078_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>_MG_3078_2.jpg</t>
+          <t>MG_3078_2.jpg</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>_MG_3079.jpg</t>
+          <t>MG_3079.jpg</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>_MG_3079_1.jpg</t>
+          <t>MG_3079_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>_MG_3082.jpg</t>
+          <t>MG_3082.jpg</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>_MG_3084.jpg</t>
+          <t>MG_3084.jpg</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>_MG_3085.jpg</t>
+          <t>MG_3085.jpg</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>_MG_3086.jpg</t>
+          <t>MG_3086.jpg</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>_MG_3087.jpg</t>
+          <t>MG_3087.jpg</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>_MG_3088.jpg</t>
+          <t>MG_3088.jpg</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>_MG_3090.jpg</t>
+          <t>MG_3090.jpg</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>_MG_3091.jpg</t>
+          <t>MG_3091.jpg</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>_MG_3093.jpg</t>
+          <t>MG_3093.jpg</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>_MG_3094.jpg</t>
+          <t>MG_3094.jpg</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>_MG_3095.jpg</t>
+          <t>MG_3095.jpg</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>_MG_3095_1.jpg</t>
+          <t>MG_3095_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>_MG_3096.jpg</t>
+          <t>MG_3096.jpg</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>_MG_3097.jpg</t>
+          <t>MG_3097.jpg</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>_MG_3098.jpg</t>
+          <t>MG_3098.jpg</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>_MG_3099.jpg</t>
+          <t>MG_3099.jpg</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>_MG_3099_1.jpg</t>
+          <t>MG_3099_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>_MG_3100.jpg</t>
+          <t>MG_3100.jpg</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>_MG_3101.jpg</t>
+          <t>MG_3101.jpg</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>_MG_3102.jpg</t>
+          <t>MG_3102.jpg</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>_MG_3103.jpg</t>
+          <t>MG_3103.jpg</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>_MG_3104.jpg</t>
+          <t>MG_3104.jpg</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>_MG_3104_1.jpg</t>
+          <t>MG_3104_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>_MG_3105.jpg</t>
+          <t>MG_3105.jpg</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>_MG_3110.jpg</t>
+          <t>MG_3110.jpg</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>_MG_3111.jpg</t>
+          <t>MG_3111.jpg</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>_MG_3111a.jpg</t>
+          <t>MG_3111a.jpg</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>_MG_3112.jpg</t>
+          <t>MG_3112.jpg</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>_MG_3113.jpg</t>
+          <t>MG_3113.jpg</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>_MG_3114.jpg</t>
+          <t>MG_3114.jpg</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>_MG_3115.jpg</t>
+          <t>MG_3115.jpg</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>_MG_3116.jpg</t>
+          <t>MG_3116.jpg</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>_MG_3116_1.jpg</t>
+          <t>MG_3116_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>_MG_3117.jpg</t>
+          <t>MG_3117.jpg</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>_MG_3118.jpg</t>
+          <t>MG_3118.jpg</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>_MG_3119.jpg</t>
+          <t>MG_3119.jpg</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>_MG_3120.jpg</t>
+          <t>MG_3120.jpg</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>_MG_3121.jpg</t>
+          <t>MG_3121.jpg</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>_MG_3122.jpg</t>
+          <t>MG_3122.jpg</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>_MG_3125.jpg</t>
+          <t>MG_3125.jpg</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>_MG_3127.jpg</t>
+          <t>MG_3127.jpg</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>_MG_3127_1.jpg</t>
+          <t>MG_3127_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>_MG_3129.jpg</t>
+          <t>MG_3129.jpg</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>_MG_3129_1.jpg</t>
+          <t>MG_3129_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>_MG_3131.jpg</t>
+          <t>MG_3131.jpg</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>_MG_3134.jpg</t>
+          <t>MG_3134.jpg</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>_MG_3135.jpg</t>
+          <t>MG_3135.jpg</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>_MG_3136.jpg</t>
+          <t>MG_3136.jpg</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>_MG_3138.jpg</t>
+          <t>MG_3138.jpg</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>_MG_3141.jpg</t>
+          <t>MG_3141.jpg</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>_MG_3141_1.jpg</t>
+          <t>MG_3141_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>_MG_3142.jpg</t>
+          <t>MG_3142.jpg</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>_MG_3143.jpg</t>
+          <t>MG_3143.jpg</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>_MG_3144.jpg</t>
+          <t>MG_3144.jpg</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>_MG_3145.jpg</t>
+          <t>MG_3145.jpg</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>_MG_3146.jpg</t>
+          <t>MG_3146.jpg</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>_MG_3147.jpg</t>
+          <t>MG_3147.jpg</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>_MG_3149.jpg</t>
+          <t>MG_3149.jpg</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>_MG_3152.jpg</t>
+          <t>MG_3152.jpg</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>_MG_3154.jpg</t>
+          <t>MG_3154.jpg</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>_MG_3155.jpg</t>
+          <t>MG_3155.jpg</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>_MG_3156.jpg</t>
+          <t>MG_3156.jpg</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>_MG_3157_1.jpg</t>
+          <t>MG_3157_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>_MG_3158.jpg</t>
+          <t>MG_3158.jpg</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>_MG_3159.jpg</t>
+          <t>MG_3159.jpg</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>_MG_3159_1.jpg</t>
+          <t>MG_3159_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>_MG_3161.jpg</t>
+          <t>MG_3161.jpg</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>_MG_3162.jpg</t>
+          <t>MG_3162.jpg</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>_MG_3163.jpg</t>
+          <t>MG_3163.jpg</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>_MG_3164.jpg</t>
+          <t>MG_3164.jpg</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>_MG_3165.jpg</t>
+          <t>MG_3165.jpg</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>_MG_3166.jpg</t>
+          <t>MG_3166.jpg</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>_MG_3167.jpg</t>
+          <t>MG_3167.jpg</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>_MG_3168.jpg</t>
+          <t>MG_3168.jpg</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>_MG_3169.jpg</t>
+          <t>MG_3169.jpg</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>_MG_3171.jpg</t>
+          <t>MG_3171.jpg</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>_MG_3174.jpg</t>
+          <t>MG_3174.jpg</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>_MG_3175.jpg</t>
+          <t>MG_3175.jpg</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>_MG_3178.jpg</t>
+          <t>MG_3178.jpg</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>_MG_3180.jpg</t>
+          <t>MG_3180.jpg</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>_MG_3181.jpg</t>
+          <t>MG_3181.jpg</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>_MG_3183.jpg</t>
+          <t>MG_3183.jpg</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>_MG_3184_1.jpg</t>
+          <t>MG_3184_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>_MG_3188.jpg</t>
+          <t>MG_3188.jpg</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>_MG_3189.jpg</t>
+          <t>MG_3189.jpg</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>_MG_3193.jpg</t>
+          <t>MG_3193.jpg</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>_MG_3200.jpg</t>
+          <t>MG_3200.jpg</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>_MG_3201.jpg</t>
+          <t>MG_3201.jpg</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>_MG_3203.jpg</t>
+          <t>MG_3203.jpg</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>_MG_3206.jpg</t>
+          <t>MG_3206.jpg</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>_MG_3208.jpg</t>
+          <t>MG_3208.jpg</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>_MG_3210.jpg</t>
+          <t>MG_3210.jpg</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>_MG_3216.jpg</t>
+          <t>MG_3216.jpg</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>_MG_3219.jpg</t>
+          <t>MG_3219.jpg</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>_MG_3220.jpg</t>
+          <t>MG_3220.jpg</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>_MG_3221.jpg</t>
+          <t>MG_3221.jpg</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>_MG_3224.jpg</t>
+          <t>MG_3224.jpg</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>_MG_3225.jpg</t>
+          <t>MG_3225.jpg</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>_MG_3227.jpg</t>
+          <t>MG_3227.jpg</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>_MG_3229.jpg</t>
+          <t>MG_3229.jpg</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>_MG_3231.jpg</t>
+          <t>MG_3231.jpg</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>_MG_3232.jpg</t>
+          <t>MG_3232.jpg</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>_MG_3233.jpg</t>
+          <t>MG_3233.jpg</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>_MG_3235.jpg</t>
+          <t>MG_3235.jpg</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>_MG_3236.jpg</t>
+          <t>MG_3236.jpg</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>_MG_3236_1.jpg</t>
+          <t>MG_3236_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>_MG_3240.jpg</t>
+          <t>MG_3240.jpg</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>_MG_3242.jpg</t>
+          <t>MG_3242.jpg</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>_MG_3244.jpg</t>
+          <t>MG_3244.jpg</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>_MG_3246.jpg</t>
+          <t>MG_3246.jpg</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>_MG_3247.jpg</t>
+          <t>MG_3247.jpg</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>_MG_3248.jpg</t>
+          <t>MG_3248.jpg</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>_MG_3251.jpg</t>
+          <t>MG_3251.jpg</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>_MG_3253.jpg</t>
+          <t>MG_3253.jpg</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>_MG_3254.jpg</t>
+          <t>MG_3254.jpg</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>_MG_3255.jpg</t>
+          <t>MG_3255.jpg</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>_MG_3256.jpg</t>
+          <t>MG_3256.jpg</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>_MG_3257.jpg</t>
+          <t>MG_3257.jpg</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>_MG_3258.jpg</t>
+          <t>MG_3258.jpg</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>_MG_3259.jpg</t>
+          <t>MG_3259.jpg</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>_MG_3260.jpg</t>
+          <t>MG_3260.jpg</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>_MG_3261.jpg</t>
+          <t>MG_3261.jpg</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>_MG_3262.jpg</t>
+          <t>MG_3262.jpg</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>_MG_3264.jpg</t>
+          <t>MG_3264.jpg</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>_MG_3265.jpg</t>
+          <t>MG_3265.jpg</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>_MG_3266.jpg</t>
+          <t>MG_3266.jpg</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>_MG_3270.jpg</t>
+          <t>MG_3270.jpg</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>_MG_3271.jpg</t>
+          <t>MG_3271.jpg</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>_MG_3273.jpg</t>
+          <t>MG_3273.jpg</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>_MG_3275.jpg</t>
+          <t>MG_3275.jpg</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>_MG_3276.jpg</t>
+          <t>MG_3276.jpg</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>_MG_3277.jpg</t>
+          <t>MG_3277.jpg</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>_MG_3278.jpg</t>
+          <t>MG_3278.jpg</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>_MG_3280.jpg</t>
+          <t>MG_3280.jpg</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>_MG_3281.jpg</t>
+          <t>MG_3281.jpg</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>_MG_3285.jpg</t>
+          <t>MG_3285.jpg</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>_MG_3286.jpg</t>
+          <t>MG_3286.jpg</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>_MG_3287.jpg</t>
+          <t>MG_3287.jpg</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>_MG_3288.jpg</t>
+          <t>MG_3288.jpg</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>_MG_3290.jpg</t>
+          <t>MG_3290.jpg</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>_MG_3292.jpg</t>
+          <t>MG_3292.jpg</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>_MG_3294.jpg</t>
+          <t>MG_3294.jpg</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>_MG_3295.jpg</t>
+          <t>MG_3295.jpg</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>_MG_3297.jpg</t>
+          <t>MG_3297.jpg</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>_MG_3298.jpg</t>
+          <t>MG_3298.jpg</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>_MG_3300.jpg</t>
+          <t>MG_3300.jpg</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>_MG_3305.jpg</t>
+          <t>MG_3305.jpg</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>_MG_3306.jpg</t>
+          <t>MG_3306.jpg</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>_MG_3308.jpg</t>
+          <t>MG_3308.jpg</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>_MG_3309.jpg</t>
+          <t>MG_3309.jpg</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>_MG_3310.jpg</t>
+          <t>MG_3310.jpg</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>_MG_3311.jpg</t>
+          <t>MG_3311.jpg</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>_MG_3314.jpg</t>
+          <t>MG_3314.jpg</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>_MG_3315.jpg</t>
+          <t>MG_3315.jpg</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>_MG_3316.jpg</t>
+          <t>MG_3316.jpg</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>_MG_3320.jpg</t>
+          <t>MG_3320.jpg</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>_MG_3322.jpg</t>
+          <t>MG_3322.jpg</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>_MG_3323.jpg</t>
+          <t>MG_3323.jpg</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>_MG_3325.jpg</t>
+          <t>MG_3325.jpg</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>_MG_3325_1.jpg</t>
+          <t>MG_3325_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>_MG_3326.jpg</t>
+          <t>MG_3326.jpg</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>_MG_3327.jpg</t>
+          <t>MG_3327.jpg</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>_MG_3333.jpg</t>
+          <t>MG_3333.jpg</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>_MG_3335.jpg</t>
+          <t>MG_3335.jpg</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>_MG_3336.jpg</t>
+          <t>MG_3336.jpg</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>_MG_3337.jpg</t>
+          <t>MG_3337.jpg</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>_MG_3338.jpg</t>
+          <t>MG_3338.jpg</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>_MG_3339.jpg</t>
+          <t>MG_3339.jpg</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>_MG_3343.jpg</t>
+          <t>MG_3343.jpg</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>_MG_3347.jpg</t>
+          <t>MG_3347.jpg</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>_MG_3348.jpg</t>
+          <t>MG_3348.jpg</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>_MG_3349.jpg</t>
+          <t>MG_3349.jpg</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>_MG_3350.jpg</t>
+          <t>MG_3350.jpg</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>_MG_3351.jpg</t>
+          <t>MG_3351.jpg</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>_MG_3359.jpg</t>
+          <t>MG_3359.jpg</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>_MG_3363.jpg</t>
+          <t>MG_3363.jpg</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>_MG_3365.jpg</t>
+          <t>MG_3365.jpg</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>_MG_3366.jpg</t>
+          <t>MG_3366.jpg</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>_MG_3367.jpg</t>
+          <t>MG_3367.jpg</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>_MG_3367_1.jpg</t>
+          <t>MG_3367_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>_MG_3368_1.jpg</t>
+          <t>MG_3368_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>_MG_3369.jpg</t>
+          <t>MG_3369.jpg</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>_MG_3370.jpg</t>
+          <t>MG_3370.jpg</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>_MG_3371.jpg</t>
+          <t>MG_3371.jpg</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>_MG_3372.jpg</t>
+          <t>MG_3372.jpg</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>_MG_3375.jpg</t>
+          <t>MG_3375.jpg</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>_MG_3376.jpg</t>
+          <t>MG_3376.jpg</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>_MG_3378.jpg</t>
+          <t>MG_3378.jpg</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>_MG_3379.jpg</t>
+          <t>MG_3379.jpg</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>_MG_3380.jpg</t>
+          <t>MG_3380.jpg</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>_MG_3381.jpg</t>
+          <t>MG_3381.jpg</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>_MG_3382.jpg</t>
+          <t>MG_3382.jpg</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>_MG_3384.jpg</t>
+          <t>MG_3384.jpg</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>_MG_3386.jpg</t>
+          <t>MG_3386.jpg</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>_MG_3389.jpg</t>
+          <t>MG_3389.jpg</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>_MG_3390.jpg</t>
+          <t>MG_3390.jpg</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>_MG_3391.jpg</t>
+          <t>MG_3391.jpg</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>_MG_3392.jpg</t>
+          <t>MG_3392.jpg</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>_MG_3393.jpg</t>
+          <t>MG_3393.jpg</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>_MG_3394.jpg</t>
+          <t>MG_3394.jpg</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>_MG_3395.jpg</t>
+          <t>MG_3395.jpg</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>_MG_3396.jpg</t>
+          <t>MG_3396.jpg</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>_MG_3397.jpg</t>
+          <t>MG_3397.jpg</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>_MG_3399.jpg</t>
+          <t>MG_3399.jpg</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>_MG_3400.jpg</t>
+          <t>MG_3400.jpg</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>_MG_3401.jpg</t>
+          <t>MG_3401.jpg</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>_MG_3402.jpg</t>
+          <t>MG_3402.jpg</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>_MG_3403.jpg</t>
+          <t>MG_3403.jpg</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>_MG_3403_1.jpg</t>
+          <t>MG_3403_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>_MG_3404.jpg</t>
+          <t>MG_3404.jpg</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>_MG_3405.jpg</t>
+          <t>MG_3405.jpg</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>_MG_3406.jpg</t>
+          <t>MG_3406.jpg</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>_MG_3407.jpg</t>
+          <t>MG_3407.jpg</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>_MG_3408.jpg</t>
+          <t>MG_3408.jpg</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>_MG_3409.jpg</t>
+          <t>MG_3409.jpg</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>_MG_3411.jpg</t>
+          <t>MG_3411.jpg</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>_MG_3412.jpg</t>
+          <t>MG_3412.jpg</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>_MG_3413.jpg</t>
+          <t>MG_3413.jpg</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>_MG_3414.jpg</t>
+          <t>MG_3414.jpg</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>_MG_3415.jpg</t>
+          <t>MG_3415.jpg</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>_MG_3416.jpg</t>
+          <t>MG_3416.jpg</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>_MG_3417.jpg</t>
+          <t>MG_3417.jpg</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>_MG_3418.jpg</t>
+          <t>MG_3418.jpg</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>_MG_3419.jpg</t>
+          <t>MG_3419.jpg</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>_MG_3420.jpg</t>
+          <t>MG_3420.jpg</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>_MG_3420_1.jpg</t>
+          <t>MG_3420_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>_MG_3422.jpg</t>
+          <t>MG_3422.jpg</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>_MG_3423.jpg</t>
+          <t>MG_3423.jpg</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>_MG_3424.jpg</t>
+          <t>MG_3424.jpg</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>_MG_3425.jpg</t>
+          <t>MG_3425.jpg</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>_MG_3426.jpg</t>
+          <t>MG_3426.jpg</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>_MG_3427.jpg</t>
+          <t>MG_3427.jpg</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>_MG_3428.jpg</t>
+          <t>MG_3428.jpg</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>_MG_3428_1.jpg</t>
+          <t>MG_3428_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>_MG_3429.jpg</t>
+          <t>MG_3429.jpg</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>_MG_3430.jpg</t>
+          <t>MG_3430.jpg</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>_MG_3430_1.jpg</t>
+          <t>MG_3430_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>_MG_3431.jpg</t>
+          <t>MG_3431.jpg</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>_MG_3431_1.jpg</t>
+          <t>MG_3431_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>_MG_3433.jpg</t>
+          <t>MG_3433.jpg</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>_MG_3434.jpg</t>
+          <t>MG_3434.jpg</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>_MG_3435.jpg</t>
+          <t>MG_3435.jpg</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>_MG_3436.jpg</t>
+          <t>MG_3436.jpg</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>_MG_3437.jpg</t>
+          <t>MG_3437.jpg</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>_MG_3439.jpg</t>
+          <t>MG_3439.jpg</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>_MG_3440.jpg</t>
+          <t>MG_3440.jpg</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>_MG_3441.jpg</t>
+          <t>MG_3441.jpg</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>_MG_3442.jpg</t>
+          <t>MG_3442.jpg</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>_MG_3443.jpg</t>
+          <t>MG_3443.jpg</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>_MG_3444.jpg</t>
+          <t>MG_3444.jpg</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>_MG_3445.jpg</t>
+          <t>MG_3445.jpg</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>_MG_3446.jpg</t>
+          <t>MG_3446.jpg</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>_MG_3447.jpg</t>
+          <t>MG_3447.jpg</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>_MG_3448.jpg</t>
+          <t>MG_3448.jpg</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>_MG_3449.jpg</t>
+          <t>MG_3449.jpg</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>_MG_3450.jpg</t>
+          <t>MG_3450.jpg</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>_MG_3451.jpg</t>
+          <t>MG_3451.jpg</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>_MG_3452.jpg</t>
+          <t>MG_3452.jpg</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>_MG_3454.jpg</t>
+          <t>MG_3454.jpg</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>_MG_3455.jpg</t>
+          <t>MG_3455.jpg</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>_MG_3456.jpg</t>
+          <t>MG_3456.jpg</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>_MG_3457.jpg</t>
+          <t>MG_3457.jpg</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>_MG_3458.jpg</t>
+          <t>MG_3458.jpg</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>_MG_3459.jpg</t>
+          <t>MG_3459.jpg</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>_MG_3460.jpg</t>
+          <t>MG_3460.jpg</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>_MG_3461.jpg</t>
+          <t>MG_3461.jpg</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>_MG_3462.jpg</t>
+          <t>MG_3462.jpg</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>_MG_3463.jpg</t>
+          <t>MG_3463.jpg</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>_MG_3464.jpg</t>
+          <t>MG_3464.jpg</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>_MG_3464_1.jpg</t>
+          <t>MG_3464_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>_MG_3464_3.jpg</t>
+          <t>MG_3464_3.jpg</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>_MG_3465.jpg</t>
+          <t>MG_3465.jpg</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>_MG_3466.jpg</t>
+          <t>MG_3466.jpg</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>_MG_3467.jpg</t>
+          <t>MG_3467.jpg</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>_MG_3468_1.jpg</t>
+          <t>MG_3468_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>_MG_3470.jpg</t>
+          <t>MG_3470.jpg</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>_MG_3471.jpg</t>
+          <t>MG_3471.jpg</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>_MG_3472.jpg</t>
+          <t>MG_3472.jpg</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>_MG_3473.jpg</t>
+          <t>MG_3473.jpg</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>_MG_3474.jpg</t>
+          <t>MG_3474.jpg</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>_MG_3475.jpg</t>
+          <t>MG_3475.jpg</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>_MG_3476.jpg</t>
+          <t>MG_3476.jpg</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>_MG_3477.jpg</t>
+          <t>MG_3477.jpg</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>_MG_3478.jpg</t>
+          <t>MG_3478.jpg</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>_MG_3479.jpg</t>
+          <t>MG_3479.jpg</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>_MG_3481.jpg</t>
+          <t>MG_3481.jpg</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>_MG_3482.jpg</t>
+          <t>MG_3482.jpg</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>_MG_3482_1.jpg</t>
+          <t>MG_3482_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>_MG_3485.jpg</t>
+          <t>MG_3485.jpg</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>_MG_3487.jpg</t>
+          <t>MG_3487.jpg</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>_MG_3489.jpg</t>
+          <t>MG_3489.jpg</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>_MG_3490.jpg</t>
+          <t>MG_3490.jpg</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>_MG_3491.jpg</t>
+          <t>MG_3491.jpg</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>_MG_3492.jpg</t>
+          <t>MG_3492.jpg</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>_MG_3493.jpg</t>
+          <t>MG_3493.jpg</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>_MG_3494.jpg</t>
+          <t>MG_3494.jpg</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>_MG_3495.jpg</t>
+          <t>MG_3495.jpg</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>_MG_3496.jpg</t>
+          <t>MG_3496.jpg</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>_MG_3498.jpg</t>
+          <t>MG_3498.jpg</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>_MG_3499.jpg</t>
+          <t>MG_3499.jpg</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>_MG_3500.jpg</t>
+          <t>MG_3500.jpg</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>_MG_3501.jpg</t>
+          <t>MG_3501.jpg</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>_MG_3502.jpg</t>
+          <t>MG_3502.jpg</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>_MG_3503.jpg</t>
+          <t>MG_3503.jpg</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>_MG_3504.jpg</t>
+          <t>MG_3504.jpg</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>_MG_3505.jpg</t>
+          <t>MG_3505.jpg</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>_MG_3506.jpg</t>
+          <t>MG_3506.jpg</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>_MG_3508.jpg</t>
+          <t>MG_3508.jpg</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>_MG_3509.jpg</t>
+          <t>MG_3509.jpg</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>_MG_3509_1.jpg</t>
+          <t>MG_3509_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>_MG_3510.jpg</t>
+          <t>MG_3510.jpg</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>_MG_3511.jpg</t>
+          <t>MG_3511.jpg</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>_MG_3512.jpg</t>
+          <t>MG_3512.jpg</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>_MG_3514.jpg</t>
+          <t>MG_3514.jpg</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>_MG_3516.jpg</t>
+          <t>MG_3516.jpg</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>_MG_3517.jpg</t>
+          <t>MG_3517.jpg</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>_MG_3518.jpg</t>
+          <t>MG_3518.jpg</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>_MG_3519.jpg</t>
+          <t>MG_3519.jpg</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>_MG_3520.jpg</t>
+          <t>MG_3520.jpg</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>_MG_3521.jpg</t>
+          <t>MG_3521.jpg</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>_MG_3522.jpg</t>
+          <t>MG_3522.jpg</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>_MG_3523.jpg</t>
+          <t>MG_3523.jpg</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>_MG_3523_1.jpg</t>
+          <t>MG_3523_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>_MG_3524.jpg</t>
+          <t>MG_3524.jpg</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>_MG_3525.jpg</t>
+          <t>MG_3525.jpg</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>_MG_3526.jpg</t>
+          <t>MG_3526.jpg</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>_MG_3527.jpg</t>
+          <t>MG_3527.jpg</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>_MG_3528.jpg</t>
+          <t>MG_3528.jpg</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>_MG_3529.jpg</t>
+          <t>MG_3529.jpg</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>_MG_3530.jpg</t>
+          <t>MG_3530.jpg</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>_MG_3531.jpg</t>
+          <t>MG_3531.jpg</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>_MG_3532.jpg</t>
+          <t>MG_3532.jpg</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>_MG_3533.jpg</t>
+          <t>MG_3533.jpg</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>_MG_3534.jpg</t>
+          <t>MG_3534.jpg</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>_MG_3534_1.jpg</t>
+          <t>MG_3534_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>_MG_3535.jpg</t>
+          <t>MG_3535.jpg</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>_MG_3536.jpg</t>
+          <t>MG_3536.jpg</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>_MG_3537.jpg</t>
+          <t>MG_3537.jpg</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>_MG_3538.jpg</t>
+          <t>MG_3538.jpg</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>_MG_3539.jpg</t>
+          <t>MG_3539.jpg</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>_MG_3540.jpg</t>
+          <t>MG_3540.jpg</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>_MG_3541.jpg</t>
+          <t>MG_3541.jpg</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>_MG_3543.jpg</t>
+          <t>MG_3543.jpg</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>_MG_3544.jpg</t>
+          <t>MG_3544.jpg</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>_MG_3544_1.jpg</t>
+          <t>MG_3544_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>_MG_3545.jpg</t>
+          <t>MG_3545.jpg</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>_MG_3546.jpg</t>
+          <t>MG_3546.jpg</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>_MG_3547.jpg</t>
+          <t>MG_3547.jpg</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>_MG_3548.jpg</t>
+          <t>MG_3548.jpg</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>_MG_3549.jpg</t>
+          <t>MG_3549.jpg</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>_MG_3550.jpg</t>
+          <t>MG_3550.jpg</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>_MG_3551.jpg</t>
+          <t>MG_3551.jpg</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>_MG_3552.jpg</t>
+          <t>MG_3552.jpg</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>_MG_3555.jpg</t>
+          <t>MG_3555.jpg</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>_MG_3556.jpg</t>
+          <t>MG_3556.jpg</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>_MG_3557.jpg</t>
+          <t>MG_3557.jpg</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>_MG_3558.jpg</t>
+          <t>MG_3558.jpg</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>_MG_3559.jpg</t>
+          <t>MG_3559.jpg</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>_MG_3561.jpg</t>
+          <t>MG_3561.jpg</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>_MG_3563.jpg</t>
+          <t>MG_3563.jpg</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>_MG_3564.jpg</t>
+          <t>MG_3564.jpg</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>_MG_3565.jpg</t>
+          <t>MG_3565.jpg</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>_MG_3566.jpg</t>
+          <t>MG_3566.jpg</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>_MG_3570.jpg</t>
+          <t>MG_3570.jpg</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>_MG_3570_1.jpg</t>
+          <t>MG_3570_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>_MG_3571.jpg</t>
+          <t>MG_3571.jpg</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>_MG_3572.jpg</t>
+          <t>MG_3572.jpg</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>_MG_3573.jpg</t>
+          <t>MG_3573.jpg</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>_MG_3574.jpg</t>
+          <t>MG_3574.jpg</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>_MG_3575.jpg</t>
+          <t>MG_3575.jpg</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>_MG_3578.jpg</t>
+          <t>MG_3578.jpg</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>_MG_3579.jpg</t>
+          <t>MG_3579.jpg</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>_MG_3580.jpg</t>
+          <t>MG_3580.jpg</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>_MG_3581.jpg</t>
+          <t>MG_3581.jpg</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>_MG_3582.jpg</t>
+          <t>MG_3582.jpg</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>_MG_3583.jpg</t>
+          <t>MG_3583.jpg</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>_MG_3584.jpg</t>
+          <t>MG_3584.jpg</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>_MG_3585.jpg</t>
+          <t>MG_3585.jpg</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>_MG_3587.jpg</t>
+          <t>MG_3587.jpg</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>_MG_3588.jpg</t>
+          <t>MG_3588.jpg</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>_MG_3589.jpg</t>
+          <t>MG_3589.jpg</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>_MG_3591.jpg</t>
+          <t>MG_3591.jpg</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>_MG_3594.jpg</t>
+          <t>MG_3594.jpg</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>_MG_3596.jpg</t>
+          <t>MG_3596.jpg</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>_MG_3597.jpg</t>
+          <t>MG_3597.jpg</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>_MG_3598.jpg</t>
+          <t>MG_3598.jpg</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>_MG_3603.jpg</t>
+          <t>MG_3603.jpg</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>_MG_3603_1.jpg</t>
+          <t>MG_3603_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>_MG_3604.jpg</t>
+          <t>MG_3604.jpg</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>_MG_3605.jpg</t>
+          <t>MG_3605.jpg</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>_MG_3608.jpg</t>
+          <t>MG_3608.jpg</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>_MG_3609.jpg</t>
+          <t>MG_3609.jpg</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>_MG_3612.jpg</t>
+          <t>MG_3612.jpg</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>_MG_3613.jpg</t>
+          <t>MG_3613.jpg</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>_MG_3614.jpg</t>
+          <t>MG_3614.jpg</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>_MG_3616.jpg</t>
+          <t>MG_3616.jpg</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>_MG_3616_1.jpg</t>
+          <t>MG_3616_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>_MG_3621.jpg</t>
+          <t>MG_3621.jpg</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>_MG_3622.jpg</t>
+          <t>MG_3622.jpg</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>_MG_3623.jpg</t>
+          <t>MG_3623.jpg</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>_MG_3625.jpg</t>
+          <t>MG_3625.jpg</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>_MG_3626.jpg</t>
+          <t>MG_3626.jpg</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>_MG_3627.jpg</t>
+          <t>MG_3627.jpg</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>_MG_3628.jpg</t>
+          <t>MG_3628.jpg</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>_MG_3629.jpg</t>
+          <t>MG_3629.jpg</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>_MG_3630.jpg</t>
+          <t>MG_3630.jpg</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>_MG_3631.jpg</t>
+          <t>MG_3631.jpg</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>_MG_3632.jpg</t>
+          <t>MG_3632.jpg</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>_MG_3633.jpg</t>
+          <t>MG_3633.jpg</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>_MG_3634.jpg</t>
+          <t>MG_3634.jpg</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>_MG_3635.jpg</t>
+          <t>MG_3635.jpg</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>_MG_3636.jpg</t>
+          <t>MG_3636.jpg</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>_MG_3637.jpg</t>
+          <t>MG_3637.jpg</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>_MG_3638.jpg</t>
+          <t>MG_3638.jpg</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>_MG_3639.jpg</t>
+          <t>MG_3639.jpg</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>_MG_3640.jpg</t>
+          <t>MG_3640.jpg</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>_MG_3641.jpg</t>
+          <t>MG_3641.jpg</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>_MG_3642.jpg</t>
+          <t>MG_3642.jpg</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>_MG_3643.jpg</t>
+          <t>MG_3643.jpg</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>_MG_3644.jpg</t>
+          <t>MG_3644.jpg</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>_MG_3646.jpg</t>
+          <t>MG_3646.jpg</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>_MG_3647.jpg</t>
+          <t>MG_3647.jpg</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>_MG_3648.jpg</t>
+          <t>MG_3648.jpg</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>_MG_3649.jpg</t>
+          <t>MG_3649.jpg</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>_MG_3650.jpg</t>
+          <t>MG_3650.jpg</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>_MG_3651.jpg</t>
+          <t>MG_3651.jpg</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>_MG_3652.jpg</t>
+          <t>MG_3652.jpg</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>_MG_3653.jpg</t>
+          <t>MG_3653.jpg</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>_MG_3655.jpg</t>
+          <t>MG_3655.jpg</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>_MG_3656.jpg</t>
+          <t>MG_3656.jpg</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>_MG_3660.jpg</t>
+          <t>MG_3660.jpg</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>_MG_3662.jpg</t>
+          <t>MG_3662.jpg</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>_MG_3665.jpg</t>
+          <t>MG_3665.jpg</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>_MG_3665_1.jpg</t>
+          <t>MG_3665_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>_MG_3668.jpg</t>
+          <t>MG_3668.jpg</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>_MG_3669.jpg</t>
+          <t>MG_3669.jpg</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>_MG_3669_1.jpg</t>
+          <t>MG_3669_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>_MG_3670.jpg</t>
+          <t>MG_3670.jpg</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>_MG_3671.jpg</t>
+          <t>MG_3671.jpg</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>_MG_3672.jpg</t>
+          <t>MG_3672.jpg</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>_MG_3673.jpg</t>
+          <t>MG_3673.jpg</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>_MG_3674.jpg</t>
+          <t>MG_3674.jpg</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>_MG_3675.jpg</t>
+          <t>MG_3675.jpg</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>_MG_3676.jpg</t>
+          <t>MG_3676.jpg</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>_MG_3677.jpg</t>
+          <t>MG_3677.jpg</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>_MG_3678.jpg</t>
+          <t>MG_3678.jpg</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>_MG_3679.jpg</t>
+          <t>MG_3679.jpg</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>_MG_3680.jpg</t>
+          <t>MG_3680.jpg</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>_MG_3681.jpg</t>
+          <t>MG_3681.jpg</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>_MG_3682.jpg</t>
+          <t>MG_3682.jpg</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>_MG_3683.jpg</t>
+          <t>MG_3683.jpg</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>_MG_3684.jpg</t>
+          <t>MG_3684.jpg</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>_MG_3685.jpg</t>
+          <t>MG_3685.jpg</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>_MG_3686.jpg</t>
+          <t>MG_3686.jpg</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>_MG_3687.jpg</t>
+          <t>MG_3687.jpg</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>_MG_3688.jpg</t>
+          <t>MG_3688.jpg</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>_MG_3689.jpg</t>
+          <t>MG_3689.jpg</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>_MG_3692.jpg</t>
+          <t>MG_3692.jpg</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>_MG_3694.jpg</t>
+          <t>MG_3694.jpg</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>_MG_3696.jpg</t>
+          <t>MG_3696.jpg</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>_MG_3696_1.jpg</t>
+          <t>MG_3696_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>_MG_3697.jpg</t>
+          <t>MG_3697.jpg</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>_MG_3698.jpg</t>
+          <t>MG_3698.jpg</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>_MG_3700.jpg</t>
+          <t>MG_3700.jpg</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>_MG_3701.jpg</t>
+          <t>MG_3701.jpg</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>_MG_3702.jpg</t>
+          <t>MG_3702.jpg</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>_MG_3703.jpg</t>
+          <t>MG_3703.jpg</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>_MG_3704.jpg</t>
+          <t>MG_3704.jpg</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>_MG_3706.jpg</t>
+          <t>MG_3706.jpg</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>_MG_3710.jpg</t>
+          <t>MG_3710.jpg</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>_MG_3711.jpg</t>
+          <t>MG_3711.jpg</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>_MG_3712.jpg</t>
+          <t>MG_3712.jpg</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>_MG_3713.jpg</t>
+          <t>MG_3713.jpg</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>_MG_3713_1.jpg</t>
+          <t>MG_3713_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>_MG_3714.jpg</t>
+          <t>MG_3714.jpg</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>_MG_3715.jpg</t>
+          <t>MG_3715.jpg</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>_MG_3716.jpg</t>
+          <t>MG_3716.jpg</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>_MG_3717.jpg</t>
+          <t>MG_3717.jpg</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>_MG_3718.jpg</t>
+          <t>MG_3718.jpg</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>_MG_3719.jpg</t>
+          <t>MG_3719.jpg</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>_MG_3720.jpg</t>
+          <t>MG_3720.jpg</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>_MG_3721.jpg</t>
+          <t>MG_3721.jpg</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>_MG_3725.jpg</t>
+          <t>MG_3725.jpg</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>_MG_3726.jpg</t>
+          <t>MG_3726.jpg</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>_MG_3727.jpg</t>
+          <t>MG_3727.jpg</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>_MG_3728.jpg</t>
+          <t>MG_3728.jpg</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>_MG_3728_1.jpg</t>
+          <t>MG_3728_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>_MG_3729.jpg</t>
+          <t>MG_3729.jpg</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>_MG_3730.jpg</t>
+          <t>MG_3730.jpg</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>_MG_3733.jpg</t>
+          <t>MG_3733.jpg</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>_MG_3734.jpg</t>
+          <t>MG_3734.jpg</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>_MG_3735.jpg</t>
+          <t>MG_3735.jpg</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>_MG_3736.jpg</t>
+          <t>MG_3736.jpg</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>_MG_3736_1.jpg</t>
+          <t>MG_3736_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>_MG_3737.jpg</t>
+          <t>MG_3737.jpg</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>_MG_3738.jpg</t>
+          <t>MG_3738.jpg</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>_MG_3739.jpg</t>
+          <t>MG_3739.jpg</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>_MG_3740.jpg</t>
+          <t>MG_3740.jpg</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>_MG_3741.jpg</t>
+          <t>MG_3741.jpg</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>_MG_3742.jpg</t>
+          <t>MG_3742.jpg</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>_MG_3742_1.jpg</t>
+          <t>MG_3742_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>_MG_3743.jpg</t>
+          <t>MG_3743.jpg</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>_MG_3744.jpg</t>
+          <t>MG_3744.jpg</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>_MG_3746.jpg</t>
+          <t>MG_3746.jpg</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>_MG_3747.jpg</t>
+          <t>MG_3747.jpg</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>_MG_3751.jpg</t>
+          <t>MG_3751.jpg</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>_MG_3753.jpg</t>
+          <t>MG_3753.jpg</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>_MG_3754.jpg</t>
+          <t>MG_3754.jpg</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>_MG_3754_1.jpg</t>
+          <t>MG_3754_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>_MG_3756.jpg</t>
+          <t>MG_3756.jpg</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>_MG_3758.jpg</t>
+          <t>MG_3758.jpg</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>_MG_3759.jpg</t>
+          <t>MG_3759.jpg</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>_MG_3760.jpg</t>
+          <t>MG_3760.jpg</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>_MG_3761.jpg</t>
+          <t>MG_3761.jpg</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>_MG_3762.jpg</t>
+          <t>MG_3762.jpg</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>_MG_3763.jpg</t>
+          <t>MG_3763.jpg</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>_MG_3764.jpg</t>
+          <t>MG_3764.jpg</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>_MG_3765.jpg</t>
+          <t>MG_3765.jpg</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>_MG_3766.jpg</t>
+          <t>MG_3766.jpg</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>_MG_3767.jpg</t>
+          <t>MG_3767.jpg</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>_MG_3768.jpg</t>
+          <t>MG_3768.jpg</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>_MG_3770.jpg</t>
+          <t>MG_3770.jpg</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>_MG_3772.jpg</t>
+          <t>MG_3772.jpg</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>_MG_3776.jpg</t>
+          <t>MG_3776.jpg</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>_MG_3778.jpg</t>
+          <t>MG_3778.jpg</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>_MG_3779.jpg</t>
+          <t>MG_3779.jpg</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>_MG_3780.jpg</t>
+          <t>MG_3780.jpg</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>_MG_3781.jpg</t>
+          <t>MG_3781.jpg</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>_MG_3782.jpg</t>
+          <t>MG_3782.jpg</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>_MG_3783.jpg</t>
+          <t>MG_3783.jpg</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>_MG_3784.jpg</t>
+          <t>MG_3784.jpg</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>_MG_3785.jpg</t>
+          <t>MG_3785.jpg</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>_MG_3786.jpg</t>
+          <t>MG_3786.jpg</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>_MG_3788.jpg</t>
+          <t>MG_3788.jpg</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>_MG_3789.jpg</t>
+          <t>MG_3789.jpg</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>_MG_3800.jpg</t>
+          <t>MG_3800.jpg</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>_MG_3801.jpg</t>
+          <t>MG_3801.jpg</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>_MG_3802.jpg</t>
+          <t>MG_3802.jpg</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>_MG_3807.jpg</t>
+          <t>MG_3807.jpg</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>_MG_3808.jpg</t>
+          <t>MG_3808.jpg</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>_MG_3809.jpg</t>
+          <t>MG_3809.jpg</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>_MG_3810.jpg</t>
+          <t>MG_3810.jpg</t>
         </is>
       </c>
     </row>

--- a/archivos_listados.xlsx
+++ b/archivos_listados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\publicar_facturaap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101FF757-A6D9-46C8-AA82-ADEC3427AA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A4641-8035-46F8-B488-4ED25FBAD371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,438 +33,957 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>Nombre del archivo</t>
   </si>
   <si>
-    <t>DSC_0003.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0004.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0005.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0006.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0007.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0008.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0009.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0010.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0011.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0021.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0022.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0023.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0024.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0025.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0026.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0027.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0028.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0029.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0031.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0032.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0033.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0034.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0035.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0036.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0040.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0041.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0042.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0043.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0044.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0045.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0046.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0047.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0049.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0050.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0051.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0053.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0054.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0055.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0056.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0057.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0058.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0059.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0060.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0061.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0062.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0064.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0065.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0066.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0067.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0069.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0070.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0071.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0072.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0073.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0074.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0075.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0076.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0077.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0078.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0079.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0080.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0081.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0082.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0083.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0084.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0085.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0087.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0088.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0089.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0090.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0091.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0092.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0093.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0094.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0095.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0096.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0097.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0098.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0099.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0100.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0101.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0102.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0104.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0105.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0106.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0107.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0108.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0109.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0110.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0111.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0112.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0113.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0114.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0115.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0116.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0117.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0118.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0119.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0120.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0121.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0122.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0123.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0125.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0126.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0128.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0129.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0130.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0131.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0132.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0133.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0134.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0135.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0136.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0137.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0138.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0139.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0140.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0141.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0142.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0143.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0144.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0145.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0146.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0147.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0148.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0149.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0150.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0151.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0152.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0153.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0154.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0156.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0158.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0159.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0161.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0162.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0163.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0164.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0165.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0166.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0168.jpg</t>
-  </si>
-  <si>
-    <t>DSC_0169.jpg</t>
-  </si>
-  <si>
-    <t>index.html</t>
+    <t>IMG_3483.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3799.jpg</t>
+  </si>
+  <si>
+    <t>MG_2690.jpg</t>
+  </si>
+  <si>
+    <t>MG_2694.jpg</t>
+  </si>
+  <si>
+    <t>MG_2695.jpg</t>
+  </si>
+  <si>
+    <t>MG_2697.jpg</t>
+  </si>
+  <si>
+    <t>MG_2698.jpg</t>
+  </si>
+  <si>
+    <t>MG_2701.jpg</t>
+  </si>
+  <si>
+    <t>MG_2704.jpg</t>
+  </si>
+  <si>
+    <t>MG_2705.jpg</t>
+  </si>
+  <si>
+    <t>MG_2706.jpg</t>
+  </si>
+  <si>
+    <t>MG_2708.jpg</t>
+  </si>
+  <si>
+    <t>MG_2712.jpg</t>
+  </si>
+  <si>
+    <t>MG_2714.jpg</t>
+  </si>
+  <si>
+    <t>MG_2716.jpg</t>
+  </si>
+  <si>
+    <t>MG_2717.jpg</t>
+  </si>
+  <si>
+    <t>MG_2718.jpg</t>
+  </si>
+  <si>
+    <t>MG_2720.jpg</t>
+  </si>
+  <si>
+    <t>MG_2726.jpg</t>
+  </si>
+  <si>
+    <t>MG_2727.jpg</t>
+  </si>
+  <si>
+    <t>MG_2730.jpg</t>
+  </si>
+  <si>
+    <t>MG_2732.jpg</t>
+  </si>
+  <si>
+    <t>MG_2732a.jpg</t>
+  </si>
+  <si>
+    <t>MG_2733.jpg</t>
+  </si>
+  <si>
+    <t>MG_2746.jpg</t>
+  </si>
+  <si>
+    <t>MG_2747.jpg</t>
+  </si>
+  <si>
+    <t>MG_2748.jpg</t>
+  </si>
+  <si>
+    <t>MG_2750.jpg</t>
+  </si>
+  <si>
+    <t>MG_2751.jpg</t>
+  </si>
+  <si>
+    <t>MG_2754.jpg</t>
+  </si>
+  <si>
+    <t>MG_2756.jpg</t>
+  </si>
+  <si>
+    <t>MG_2758.jpg</t>
+  </si>
+  <si>
+    <t>MG_2762.jpg</t>
+  </si>
+  <si>
+    <t>MG_2769.jpg</t>
+  </si>
+  <si>
+    <t>MG_2779.jpg</t>
+  </si>
+  <si>
+    <t>MG_2780.jpg</t>
+  </si>
+  <si>
+    <t>MG_2781.jpg</t>
+  </si>
+  <si>
+    <t>MG_2784.jpg</t>
+  </si>
+  <si>
+    <t>MG_2785.jpg</t>
+  </si>
+  <si>
+    <t>MG_2789.jpg</t>
+  </si>
+  <si>
+    <t>MG_2792.jpg</t>
+  </si>
+  <si>
+    <t>MG_2795.jpg</t>
+  </si>
+  <si>
+    <t>MG_2796.jpg</t>
+  </si>
+  <si>
+    <t>MG_2799.jpg</t>
+  </si>
+  <si>
+    <t>MG_2811.jpg</t>
+  </si>
+  <si>
+    <t>MG_2813.jpg</t>
+  </si>
+  <si>
+    <t>MG_2815.jpg</t>
+  </si>
+  <si>
+    <t>MG_2819.jpg</t>
+  </si>
+  <si>
+    <t>MG_2829.jpg</t>
+  </si>
+  <si>
+    <t>MG_2830.jpg</t>
+  </si>
+  <si>
+    <t>MG_2835.jpg</t>
+  </si>
+  <si>
+    <t>MG_2836.jpg</t>
+  </si>
+  <si>
+    <t>MG_2837.jpg</t>
+  </si>
+  <si>
+    <t>MG_2845.jpg</t>
+  </si>
+  <si>
+    <t>MG_2853.jpg</t>
+  </si>
+  <si>
+    <t>MG_2854.jpg</t>
+  </si>
+  <si>
+    <t>MG_2859.jpg</t>
+  </si>
+  <si>
+    <t>MG_2860.jpg</t>
+  </si>
+  <si>
+    <t>MG_2862.jpg</t>
+  </si>
+  <si>
+    <t>MG_2863.jpg</t>
+  </si>
+  <si>
+    <t>MG_2864.jpg</t>
+  </si>
+  <si>
+    <t>MG_2867.jpg</t>
+  </si>
+  <si>
+    <t>MG_2868.jpg</t>
+  </si>
+  <si>
+    <t>MG_2869.jpg</t>
+  </si>
+  <si>
+    <t>MG_2870.jpg</t>
+  </si>
+  <si>
+    <t>MG_2871.jpg</t>
+  </si>
+  <si>
+    <t>MG_2872.jpg</t>
+  </si>
+  <si>
+    <t>MG_2873.jpg</t>
+  </si>
+  <si>
+    <t>MG_2874.jpg</t>
+  </si>
+  <si>
+    <t>MG_2875.jpg</t>
+  </si>
+  <si>
+    <t>MG_2876.jpg</t>
+  </si>
+  <si>
+    <t>MG_2879.jpg</t>
+  </si>
+  <si>
+    <t>MG_2881.jpg</t>
+  </si>
+  <si>
+    <t>MG_2883.jpg</t>
+  </si>
+  <si>
+    <t>MG_2885.jpg</t>
+  </si>
+  <si>
+    <t>MG_2886.jpg</t>
+  </si>
+  <si>
+    <t>MG_2887.jpg</t>
+  </si>
+  <si>
+    <t>MG_2912.jpg</t>
+  </si>
+  <si>
+    <t>MG_2913.jpg</t>
+  </si>
+  <si>
+    <t>MG_2914.jpg</t>
+  </si>
+  <si>
+    <t>MG_2916.jpg</t>
+  </si>
+  <si>
+    <t>MG_2917.jpg</t>
+  </si>
+  <si>
+    <t>MG_2918.jpg</t>
+  </si>
+  <si>
+    <t>MG_2920.jpg</t>
+  </si>
+  <si>
+    <t>MG_2921.jpg</t>
+  </si>
+  <si>
+    <t>MG_2927_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_2929_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_2930.jpg</t>
+  </si>
+  <si>
+    <t>MG_2932.jpg</t>
+  </si>
+  <si>
+    <t>MG_2933.jpg</t>
+  </si>
+  <si>
+    <t>MG_2976.jpg</t>
+  </si>
+  <si>
+    <t>MG_2982.jpg</t>
+  </si>
+  <si>
+    <t>MG_2998.jpg</t>
+  </si>
+  <si>
+    <t>MG_3000.jpg</t>
+  </si>
+  <si>
+    <t>MG_3031.jpg</t>
+  </si>
+  <si>
+    <t>MG_3032.jpg</t>
+  </si>
+  <si>
+    <t>MG_3034.jpg</t>
+  </si>
+  <si>
+    <t>MG_3036.jpg</t>
+  </si>
+  <si>
+    <t>MG_3037.jpg</t>
+  </si>
+  <si>
+    <t>MG_3039.jpg</t>
+  </si>
+  <si>
+    <t>MG_3043.jpg</t>
+  </si>
+  <si>
+    <t>MG_3044.jpg</t>
+  </si>
+  <si>
+    <t>MG_3046.jpg</t>
+  </si>
+  <si>
+    <t>MG_3047.jpg</t>
+  </si>
+  <si>
+    <t>MG_3051.jpg</t>
+  </si>
+  <si>
+    <t>MG_3053.jpg</t>
+  </si>
+  <si>
+    <t>MG_3059.jpg</t>
+  </si>
+  <si>
+    <t>MG_3060.jpg</t>
+  </si>
+  <si>
+    <t>MG_3061.jpg</t>
+  </si>
+  <si>
+    <t>MG_3062.jpg</t>
+  </si>
+  <si>
+    <t>MG_3063.jpg</t>
+  </si>
+  <si>
+    <t>MG_3065.jpg</t>
+  </si>
+  <si>
+    <t>MG_3066.jpg</t>
+  </si>
+  <si>
+    <t>MG_3071.jpg</t>
+  </si>
+  <si>
+    <t>MG_3072.jpg</t>
+  </si>
+  <si>
+    <t>MG_3111.jpg</t>
+  </si>
+  <si>
+    <t>MG_3111a.jpg</t>
+  </si>
+  <si>
+    <t>MG_3114.jpg</t>
+  </si>
+  <si>
+    <t>MG_3118.jpg</t>
+  </si>
+  <si>
+    <t>MG_3119.jpg</t>
+  </si>
+  <si>
+    <t>MG_3127.jpg</t>
+  </si>
+  <si>
+    <t>MG_3152.jpg</t>
+  </si>
+  <si>
+    <t>MG_3154.jpg</t>
+  </si>
+  <si>
+    <t>MG_3156.jpg</t>
+  </si>
+  <si>
+    <t>MG_3158.jpg</t>
+  </si>
+  <si>
+    <t>MG_3159.jpg</t>
+  </si>
+  <si>
+    <t>MG_3159_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_3161.jpg</t>
+  </si>
+  <si>
+    <t>MG_3163.jpg</t>
+  </si>
+  <si>
+    <t>MG_3164.jpg</t>
+  </si>
+  <si>
+    <t>MG_3165.jpg</t>
+  </si>
+  <si>
+    <t>MG_3181.jpg</t>
+  </si>
+  <si>
+    <t>MG_3183.jpg</t>
+  </si>
+  <si>
+    <t>MG_3219.jpg</t>
+  </si>
+  <si>
+    <t>MG_3221.jpg</t>
+  </si>
+  <si>
+    <t>MG_3224.jpg</t>
+  </si>
+  <si>
+    <t>MG_3227.jpg</t>
+  </si>
+  <si>
+    <t>MG_3229.jpg</t>
+  </si>
+  <si>
+    <t>MG_3232.jpg</t>
+  </si>
+  <si>
+    <t>MG_3236.jpg</t>
+  </si>
+  <si>
+    <t>MG_3254.jpg</t>
+  </si>
+  <si>
+    <t>MG_3258.jpg</t>
+  </si>
+  <si>
+    <t>MG_3287.jpg</t>
+  </si>
+  <si>
+    <t>MG_3290.jpg</t>
+  </si>
+  <si>
+    <t>MG_3292.jpg</t>
+  </si>
+  <si>
+    <t>MG_3297.jpg</t>
+  </si>
+  <si>
+    <t>MG_3300.jpg</t>
+  </si>
+  <si>
+    <t>MG_3325_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_3333.jpg</t>
+  </si>
+  <si>
+    <t>MG_3335.jpg</t>
+  </si>
+  <si>
+    <t>MG_3343.jpg</t>
+  </si>
+  <si>
+    <t>MG_3347.jpg</t>
+  </si>
+  <si>
+    <t>MG_3366.jpg</t>
+  </si>
+  <si>
+    <t>MG_3371.jpg</t>
+  </si>
+  <si>
+    <t>MG_3378.jpg</t>
+  </si>
+  <si>
+    <t>MG_3381.jpg</t>
+  </si>
+  <si>
+    <t>MG_3384.jpg</t>
+  </si>
+  <si>
+    <t>MG_3386.jpg</t>
+  </si>
+  <si>
+    <t>MG_3389.jpg</t>
+  </si>
+  <si>
+    <t>MG_3390.jpg</t>
+  </si>
+  <si>
+    <t>MG_3395.jpg</t>
+  </si>
+  <si>
+    <t>MG_3396.jpg</t>
+  </si>
+  <si>
+    <t>MG_3401.jpg</t>
+  </si>
+  <si>
+    <t>MG_3402.jpg</t>
+  </si>
+  <si>
+    <t>MG_3403.jpg</t>
+  </si>
+  <si>
+    <t>MG_3403_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_3404.jpg</t>
+  </si>
+  <si>
+    <t>MG_3406.jpg</t>
+  </si>
+  <si>
+    <t>MG_3407.jpg</t>
+  </si>
+  <si>
+    <t>MG_3408.jpg</t>
+  </si>
+  <si>
+    <t>MG_3409.jpg</t>
+  </si>
+  <si>
+    <t>MG_3411.jpg</t>
+  </si>
+  <si>
+    <t>MG_3412.jpg</t>
+  </si>
+  <si>
+    <t>MG_3413.jpg</t>
+  </si>
+  <si>
+    <t>MG_3414.jpg</t>
+  </si>
+  <si>
+    <t>MG_3415.jpg</t>
+  </si>
+  <si>
+    <t>MG_3416.jpg</t>
+  </si>
+  <si>
+    <t>MG_3417.jpg</t>
+  </si>
+  <si>
+    <t>MG_3418.jpg</t>
+  </si>
+  <si>
+    <t>MG_3419.jpg</t>
+  </si>
+  <si>
+    <t>MG_3420.jpg</t>
+  </si>
+  <si>
+    <t>MG_3423.jpg</t>
+  </si>
+  <si>
+    <t>MG_3424.jpg</t>
+  </si>
+  <si>
+    <t>MG_3430.jpg</t>
+  </si>
+  <si>
+    <t>MG_3440.jpg</t>
+  </si>
+  <si>
+    <t>MG_3443.jpg</t>
+  </si>
+  <si>
+    <t>MG_3445.jpg</t>
+  </si>
+  <si>
+    <t>MG_3449.jpg</t>
+  </si>
+  <si>
+    <t>MG_3451.jpg</t>
+  </si>
+  <si>
+    <t>MG_3457.jpg</t>
+  </si>
+  <si>
+    <t>MG_3470.jpg</t>
+  </si>
+  <si>
+    <t>MG_3474.jpg</t>
+  </si>
+  <si>
+    <t>MG_3476.jpg</t>
+  </si>
+  <si>
+    <t>MG_3477.jpg</t>
+  </si>
+  <si>
+    <t>MG_3481.jpg</t>
+  </si>
+  <si>
+    <t>MG_3485.jpg</t>
+  </si>
+  <si>
+    <t>MG_3487.jpg</t>
+  </si>
+  <si>
+    <t>MG_3489.jpg</t>
+  </si>
+  <si>
+    <t>MG_3490.jpg</t>
+  </si>
+  <si>
+    <t>MG_3491.jpg</t>
+  </si>
+  <si>
+    <t>MG_3492.jpg</t>
+  </si>
+  <si>
+    <t>MG_3498.jpg</t>
+  </si>
+  <si>
+    <t>MG_3503.jpg</t>
+  </si>
+  <si>
+    <t>MG_3504.jpg</t>
+  </si>
+  <si>
+    <t>MG_3510.jpg</t>
+  </si>
+  <si>
+    <t>MG_3511.jpg</t>
+  </si>
+  <si>
+    <t>MG_3512.jpg</t>
+  </si>
+  <si>
+    <t>MG_3516.jpg</t>
+  </si>
+  <si>
+    <t>MG_3518.jpg</t>
+  </si>
+  <si>
+    <t>MG_3519.jpg</t>
+  </si>
+  <si>
+    <t>MG_3520.jpg</t>
+  </si>
+  <si>
+    <t>MG_3521.jpg</t>
+  </si>
+  <si>
+    <t>MG_3523.jpg</t>
+  </si>
+  <si>
+    <t>MG_3524.jpg</t>
+  </si>
+  <si>
+    <t>MG_3529.jpg</t>
+  </si>
+  <si>
+    <t>MG_3541.jpg</t>
+  </si>
+  <si>
+    <t>MG_3547.jpg</t>
+  </si>
+  <si>
+    <t>MG_3552.jpg</t>
+  </si>
+  <si>
+    <t>MG_3555.jpg</t>
+  </si>
+  <si>
+    <t>MG_3556.jpg</t>
+  </si>
+  <si>
+    <t>MG_3559.jpg</t>
+  </si>
+  <si>
+    <t>MG_3572.jpg</t>
+  </si>
+  <si>
+    <t>MG_3578.jpg</t>
+  </si>
+  <si>
+    <t>MG_3580.jpg</t>
+  </si>
+  <si>
+    <t>MG_3583.jpg</t>
+  </si>
+  <si>
+    <t>MG_3594.jpg</t>
+  </si>
+  <si>
+    <t>MG_3598.jpg</t>
+  </si>
+  <si>
+    <t>MG_3616.jpg</t>
+  </si>
+  <si>
+    <t>MG_3622.jpg</t>
+  </si>
+  <si>
+    <t>MG_3626.jpg</t>
+  </si>
+  <si>
+    <t>MG_3629.jpg</t>
+  </si>
+  <si>
+    <t>MG_3631.jpg</t>
+  </si>
+  <si>
+    <t>MG_3633.jpg</t>
+  </si>
+  <si>
+    <t>MG_3634.jpg</t>
+  </si>
+  <si>
+    <t>MG_3635.jpg</t>
+  </si>
+  <si>
+    <t>MG_3639.jpg</t>
+  </si>
+  <si>
+    <t>MG_3641.jpg</t>
+  </si>
+  <si>
+    <t>MG_3642.jpg</t>
+  </si>
+  <si>
+    <t>MG_3643.jpg</t>
+  </si>
+  <si>
+    <t>MG_3644.jpg</t>
+  </si>
+  <si>
+    <t>MG_3646.jpg</t>
+  </si>
+  <si>
+    <t>MG_3647.jpg</t>
+  </si>
+  <si>
+    <t>MG_3648.jpg</t>
+  </si>
+  <si>
+    <t>MG_3649.jpg</t>
+  </si>
+  <si>
+    <t>MG_3650.jpg</t>
+  </si>
+  <si>
+    <t>MG_3651.jpg</t>
+  </si>
+  <si>
+    <t>MG_3652.jpg</t>
+  </si>
+  <si>
+    <t>MG_3653.jpg</t>
+  </si>
+  <si>
+    <t>MG_3656.jpg</t>
+  </si>
+  <si>
+    <t>MG_3660.jpg</t>
+  </si>
+  <si>
+    <t>MG_3662.jpg</t>
+  </si>
+  <si>
+    <t>MG_3665.jpg</t>
+  </si>
+  <si>
+    <t>MG_3665_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_3668.jpg</t>
+  </si>
+  <si>
+    <t>MG_3669.jpg</t>
+  </si>
+  <si>
+    <t>MG_3670.jpg</t>
+  </si>
+  <si>
+    <t>MG_3671.jpg</t>
+  </si>
+  <si>
+    <t>MG_3672.jpg</t>
+  </si>
+  <si>
+    <t>MG_3674.jpg</t>
+  </si>
+  <si>
+    <t>MG_3675.jpg</t>
+  </si>
+  <si>
+    <t>MG_3676.jpg</t>
+  </si>
+  <si>
+    <t>MG_3677.jpg</t>
+  </si>
+  <si>
+    <t>MG_3678.jpg</t>
+  </si>
+  <si>
+    <t>MG_3679.jpg</t>
+  </si>
+  <si>
+    <t>MG_3680.jpg</t>
+  </si>
+  <si>
+    <t>MG_3681.jpg</t>
+  </si>
+  <si>
+    <t>MG_3683.jpg</t>
+  </si>
+  <si>
+    <t>MG_3688.jpg</t>
+  </si>
+  <si>
+    <t>MG_3692.jpg</t>
+  </si>
+  <si>
+    <t>MG_3694.jpg</t>
+  </si>
+  <si>
+    <t>MG_3696.jpg</t>
+  </si>
+  <si>
+    <t>MG_3698.jpg</t>
+  </si>
+  <si>
+    <t>MG_3701.jpg</t>
+  </si>
+  <si>
+    <t>MG_3704.jpg</t>
+  </si>
+  <si>
+    <t>MG_3706.jpg</t>
+  </si>
+  <si>
+    <t>MG_3710.jpg</t>
+  </si>
+  <si>
+    <t>MG_3711.jpg</t>
+  </si>
+  <si>
+    <t>MG_3713_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_3715.jpg</t>
+  </si>
+  <si>
+    <t>MG_3721.jpg</t>
+  </si>
+  <si>
+    <t>MG_3726.jpg</t>
+  </si>
+  <si>
+    <t>MG_3727.jpg</t>
+  </si>
+  <si>
+    <t>MG_3728_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_3729.jpg</t>
+  </si>
+  <si>
+    <t>MG_3730.jpg</t>
+  </si>
+  <si>
+    <t>MG_3733.jpg</t>
+  </si>
+  <si>
+    <t>MG_3735.jpg</t>
+  </si>
+  <si>
+    <t>MG_3737.jpg</t>
+  </si>
+  <si>
+    <t>MG_3739.jpg</t>
+  </si>
+  <si>
+    <t>MG_3741.jpg</t>
+  </si>
+  <si>
+    <t>MG_3742_1.jpg</t>
+  </si>
+  <si>
+    <t>MG_3744.jpg</t>
+  </si>
+  <si>
+    <t>MG_3747.jpg</t>
+  </si>
+  <si>
+    <t>MG_3751.jpg</t>
+  </si>
+  <si>
+    <t>MG_3754.jpg</t>
+  </si>
+  <si>
+    <t>MG_3758.jpg</t>
+  </si>
+  <si>
+    <t>MG_3759.jpg</t>
+  </si>
+  <si>
+    <t>MG_3760.jpg</t>
+  </si>
+  <si>
+    <t>MG_3761.jpg</t>
+  </si>
+  <si>
+    <t>MG_3762.jpg</t>
+  </si>
+  <si>
+    <t>MG_3763.jpg</t>
+  </si>
+  <si>
+    <t>MG_3764.jpg</t>
+  </si>
+  <si>
+    <t>MG_3765.jpg</t>
+  </si>
+  <si>
+    <t>MG_3766.jpg</t>
+  </si>
+  <si>
+    <t>MG_3768.jpg</t>
+  </si>
+  <si>
+    <t>MG_3770.jpg</t>
+  </si>
+  <si>
+    <t>MG_3772.jpg</t>
+  </si>
+  <si>
+    <t>MG_3776.jpg</t>
+  </si>
+  <si>
+    <t>MG_3778.jpg</t>
+  </si>
+  <si>
+    <t>MG_3779.jpg</t>
+  </si>
+  <si>
+    <t>MG_3782.jpg</t>
+  </si>
+  <si>
+    <t>MG_3784.jpg</t>
+  </si>
+  <si>
+    <t>MG_3789.jpg</t>
+  </si>
+  <si>
+    <t>MG_3807.jpg</t>
+  </si>
+  <si>
+    <t>MG_3809.jpg</t>
+  </si>
+  <si>
+    <t>MG_3810.jpg</t>
   </si>
 </sst>
 </file>
@@ -827,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B144" sqref="B2:B144"/>
+      <selection activeCell="B317" sqref="B2:B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +1365,7 @@
       </c>
       <c r="B2" t="str">
         <f>"'"&amp;A2&amp;"',"</f>
-        <v>'DSC_0003.jpg',</v>
+        <v>'IMG_3483.jpg',</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +1374,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">"'"&amp;A3&amp;"',"</f>
-        <v>'DSC_0004.jpg',</v>
+        <v>'IMG_3799.jpg',</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +1383,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0005.jpg',</v>
+        <v>'MG_2690.jpg',</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +1392,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0006.jpg',</v>
+        <v>'MG_2694.jpg',</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +1401,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0007.jpg',</v>
+        <v>'MG_2695.jpg',</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +1410,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0008.jpg',</v>
+        <v>'MG_2697.jpg',</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +1419,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0009.jpg',</v>
+        <v>'MG_2698.jpg',</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +1428,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0010.jpg',</v>
+        <v>'MG_2701.jpg',</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +1437,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0011.jpg',</v>
+        <v>'MG_2704.jpg',</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +1446,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0021.jpg',</v>
+        <v>'MG_2705.jpg',</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +1455,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0022.jpg',</v>
+        <v>'MG_2706.jpg',</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +1464,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0023.jpg',</v>
+        <v>'MG_2708.jpg',</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +1473,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0024.jpg',</v>
+        <v>'MG_2712.jpg',</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +1482,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0025.jpg',</v>
+        <v>'MG_2714.jpg',</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +1491,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0026.jpg',</v>
+        <v>'MG_2716.jpg',</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +1500,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0027.jpg',</v>
+        <v>'MG_2717.jpg',</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +1509,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0028.jpg',</v>
+        <v>'MG_2718.jpg',</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1518,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0029.jpg',</v>
+        <v>'MG_2720.jpg',</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1527,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0031.jpg',</v>
+        <v>'MG_2726.jpg',</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1536,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0032.jpg',</v>
+        <v>'MG_2727.jpg',</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1545,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0033.jpg',</v>
+        <v>'MG_2730.jpg',</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1554,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0034.jpg',</v>
+        <v>'MG_2732.jpg',</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1563,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0035.jpg',</v>
+        <v>'MG_2732a.jpg',</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1572,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0036.jpg',</v>
+        <v>'MG_2733.jpg',</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1581,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0040.jpg',</v>
+        <v>'MG_2746.jpg',</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1590,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0041.jpg',</v>
+        <v>'MG_2747.jpg',</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1599,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0042.jpg',</v>
+        <v>'MG_2748.jpg',</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1608,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0043.jpg',</v>
+        <v>'MG_2750.jpg',</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +1617,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0044.jpg',</v>
+        <v>'MG_2751.jpg',</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1626,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0045.jpg',</v>
+        <v>'MG_2754.jpg',</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1635,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0046.jpg',</v>
+        <v>'MG_2756.jpg',</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1644,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0047.jpg',</v>
+        <v>'MG_2758.jpg',</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1653,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0049.jpg',</v>
+        <v>'MG_2762.jpg',</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1662,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0050.jpg',</v>
+        <v>'MG_2769.jpg',</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1671,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0051.jpg',</v>
+        <v>'MG_2779.jpg',</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1161,7 +1680,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0053.jpg',</v>
+        <v>'MG_2780.jpg',</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1689,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0054.jpg',</v>
+        <v>'MG_2781.jpg',</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1698,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0055.jpg',</v>
+        <v>'MG_2784.jpg',</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1707,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0056.jpg',</v>
+        <v>'MG_2785.jpg',</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1716,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0057.jpg',</v>
+        <v>'MG_2789.jpg',</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1725,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0058.jpg',</v>
+        <v>'MG_2792.jpg',</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1734,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0059.jpg',</v>
+        <v>'MG_2795.jpg',</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1743,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0060.jpg',</v>
+        <v>'MG_2796.jpg',</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1752,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0061.jpg',</v>
+        <v>'MG_2799.jpg',</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1242,7 +1761,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0062.jpg',</v>
+        <v>'MG_2811.jpg',</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1770,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0064.jpg',</v>
+        <v>'MG_2813.jpg',</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1779,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0065.jpg',</v>
+        <v>'MG_2815.jpg',</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1788,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0066.jpg',</v>
+        <v>'MG_2819.jpg',</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1797,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0067.jpg',</v>
+        <v>'MG_2829.jpg',</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1806,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0069.jpg',</v>
+        <v>'MG_2830.jpg',</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1815,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0070.jpg',</v>
+        <v>'MG_2835.jpg',</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,7 +1824,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0071.jpg',</v>
+        <v>'MG_2836.jpg',</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,7 +1833,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0072.jpg',</v>
+        <v>'MG_2837.jpg',</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1842,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0073.jpg',</v>
+        <v>'MG_2845.jpg',</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1851,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0074.jpg',</v>
+        <v>'MG_2853.jpg',</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1860,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0075.jpg',</v>
+        <v>'MG_2854.jpg',</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,7 +1869,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0076.jpg',</v>
+        <v>'MG_2859.jpg',</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1878,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0077.jpg',</v>
+        <v>'MG_2860.jpg',</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1887,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0078.jpg',</v>
+        <v>'MG_2862.jpg',</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1896,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0079.jpg',</v>
+        <v>'MG_2863.jpg',</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1905,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0080.jpg',</v>
+        <v>'MG_2864.jpg',</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1914,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0081.jpg',</v>
+        <v>'MG_2867.jpg',</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1923,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0082.jpg',</v>
+        <v>'MG_2868.jpg',</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1932,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0083.jpg',</v>
+        <v>'MG_2869.jpg',</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1941,7 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>'DSC_0084.jpg',</v>
+        <v>'MG_2870.jpg',</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1950,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">"'"&amp;A67&amp;"',"</f>
-        <v>'DSC_0085.jpg',</v>
+        <v>'MG_2871.jpg',</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1959,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0087.jpg',</v>
+        <v>'MG_2872.jpg',</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1968,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0088.jpg',</v>
+        <v>'MG_2873.jpg',</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1977,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0089.jpg',</v>
+        <v>'MG_2874.jpg',</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1986,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0090.jpg',</v>
+        <v>'MG_2875.jpg',</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1995,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0091.jpg',</v>
+        <v>'MG_2876.jpg',</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +2004,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0092.jpg',</v>
+        <v>'MG_2879.jpg',</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +2013,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0093.jpg',</v>
+        <v>'MG_2881.jpg',</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +2022,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0094.jpg',</v>
+        <v>'MG_2883.jpg',</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +2031,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0095.jpg',</v>
+        <v>'MG_2885.jpg',</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +2040,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0096.jpg',</v>
+        <v>'MG_2886.jpg',</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,7 +2049,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0097.jpg',</v>
+        <v>'MG_2887.jpg',</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +2058,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0098.jpg',</v>
+        <v>'MG_2912.jpg',</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +2067,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0099.jpg',</v>
+        <v>'MG_2913.jpg',</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +2076,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0100.jpg',</v>
+        <v>'MG_2914.jpg',</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +2085,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0101.jpg',</v>
+        <v>'MG_2916.jpg',</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +2094,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0102.jpg',</v>
+        <v>'MG_2917.jpg',</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +2103,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0104.jpg',</v>
+        <v>'MG_2918.jpg',</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +2112,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0105.jpg',</v>
+        <v>'MG_2920.jpg',</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +2121,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0106.jpg',</v>
+        <v>'MG_2921.jpg',</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +2130,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0107.jpg',</v>
+        <v>'MG_2927_1.jpg',</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +2139,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0108.jpg',</v>
+        <v>'MG_2929_1.jpg',</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +2148,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0109.jpg',</v>
+        <v>'MG_2930.jpg',</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +2157,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0110.jpg',</v>
+        <v>'MG_2932.jpg',</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +2166,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0111.jpg',</v>
+        <v>'MG_2933.jpg',</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +2175,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0112.jpg',</v>
+        <v>'MG_2976.jpg',</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +2184,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0113.jpg',</v>
+        <v>'MG_2982.jpg',</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +2193,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0114.jpg',</v>
+        <v>'MG_2998.jpg',</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +2202,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0115.jpg',</v>
+        <v>'MG_3000.jpg',</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +2211,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0116.jpg',</v>
+        <v>'MG_3031.jpg',</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +2220,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0117.jpg',</v>
+        <v>'MG_3032.jpg',</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +2229,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0118.jpg',</v>
+        <v>'MG_3034.jpg',</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +2238,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0119.jpg',</v>
+        <v>'MG_3036.jpg',</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +2247,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0120.jpg',</v>
+        <v>'MG_3037.jpg',</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +2256,7 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0121.jpg',</v>
+        <v>'MG_3039.jpg',</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +2265,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0122.jpg',</v>
+        <v>'MG_3043.jpg',</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +2274,7 @@
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0123.jpg',</v>
+        <v>'MG_3044.jpg',</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +2283,7 @@
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0125.jpg',</v>
+        <v>'MG_3046.jpg',</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +2292,7 @@
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0126.jpg',</v>
+        <v>'MG_3047.jpg',</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +2301,7 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0128.jpg',</v>
+        <v>'MG_3051.jpg',</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +2310,7 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0129.jpg',</v>
+        <v>'MG_3053.jpg',</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +2319,7 @@
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0130.jpg',</v>
+        <v>'MG_3059.jpg',</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +2328,7 @@
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0131.jpg',</v>
+        <v>'MG_3060.jpg',</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +2337,7 @@
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0132.jpg',</v>
+        <v>'MG_3061.jpg',</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1827,7 +2346,7 @@
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0133.jpg',</v>
+        <v>'MG_3062.jpg',</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +2355,7 @@
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0134.jpg',</v>
+        <v>'MG_3063.jpg',</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +2364,7 @@
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0135.jpg',</v>
+        <v>'MG_3065.jpg',</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +2373,7 @@
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0136.jpg',</v>
+        <v>'MG_3066.jpg',</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +2382,7 @@
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0137.jpg',</v>
+        <v>'MG_3071.jpg',</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +2391,7 @@
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0138.jpg',</v>
+        <v>'MG_3072.jpg',</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +2400,7 @@
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0139.jpg',</v>
+        <v>'MG_3111.jpg',</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +2409,7 @@
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0140.jpg',</v>
+        <v>'MG_3111a.jpg',</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,7 +2418,7 @@
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0141.jpg',</v>
+        <v>'MG_3114.jpg',</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +2427,7 @@
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0142.jpg',</v>
+        <v>'MG_3118.jpg',</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +2436,7 @@
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0143.jpg',</v>
+        <v>'MG_3119.jpg',</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +2445,7 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0144.jpg',</v>
+        <v>'MG_3127.jpg',</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +2454,7 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0145.jpg',</v>
+        <v>'MG_3152.jpg',</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,7 +2463,7 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0146.jpg',</v>
+        <v>'MG_3154.jpg',</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +2472,7 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0147.jpg',</v>
+        <v>'MG_3156.jpg',</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +2481,7 @@
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0148.jpg',</v>
+        <v>'MG_3158.jpg',</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,7 +2490,7 @@
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0149.jpg',</v>
+        <v>'MG_3159.jpg',</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +2499,7 @@
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0150.jpg',</v>
+        <v>'MG_3159_1.jpg',</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +2508,7 @@
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0151.jpg',</v>
+        <v>'MG_3161.jpg',</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +2517,7 @@
       </c>
       <c r="B130" t="str">
         <f t="shared" si="1"/>
-        <v>'DSC_0152.jpg',</v>
+        <v>'MG_3163.jpg',</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,8 +2525,8 @@
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B144" si="2">"'"&amp;A131&amp;"',"</f>
-        <v>'DSC_0153.jpg',</v>
+        <f t="shared" ref="B131:B194" si="2">"'"&amp;A131&amp;"',"</f>
+        <v>'MG_3164.jpg',</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2535,7 @@
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0154.jpg',</v>
+        <v>'MG_3165.jpg',</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2544,7 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0156.jpg',</v>
+        <v>'MG_3181.jpg',</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,7 +2553,7 @@
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0158.jpg',</v>
+        <v>'MG_3183.jpg',</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,7 +2562,7 @@
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0159.jpg',</v>
+        <v>'MG_3219.jpg',</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2571,7 @@
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0161.jpg',</v>
+        <v>'MG_3221.jpg',</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2580,7 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0162.jpg',</v>
+        <v>'MG_3224.jpg',</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2589,7 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0163.jpg',</v>
+        <v>'MG_3227.jpg',</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2598,7 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0164.jpg',</v>
+        <v>'MG_3229.jpg',</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2607,7 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0165.jpg',</v>
+        <v>'MG_3232.jpg',</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2616,7 @@
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0166.jpg',</v>
+        <v>'MG_3236.jpg',</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2625,7 @@
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0168.jpg',</v>
+        <v>'MG_3254.jpg',</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2634,7 @@
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v>'DSC_0169.jpg',</v>
+        <v>'MG_3258.jpg',</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2643,1564 @@
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v>'index.html',</v>
+        <v>'MG_3287.jpg',</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3290.jpg',</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3292.jpg',</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3297.jpg',</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3300.jpg',</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3325_1.jpg',</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3333.jpg',</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3335.jpg',</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3343.jpg',</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3347.jpg',</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3366.jpg',</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3371.jpg',</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3378.jpg',</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3381.jpg',</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3384.jpg',</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3386.jpg',</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3389.jpg',</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3390.jpg',</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3395.jpg',</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3396.jpg',</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3401.jpg',</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3402.jpg',</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3403.jpg',</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3403_1.jpg',</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3404.jpg',</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3406.jpg',</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3407.jpg',</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3408.jpg',</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3409.jpg',</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3411.jpg',</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3412.jpg',</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3413.jpg',</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3414.jpg',</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3415.jpg',</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3416.jpg',</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3417.jpg',</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3418.jpg',</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3419.jpg',</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3420.jpg',</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3423.jpg',</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3424.jpg',</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3430.jpg',</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3440.jpg',</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3443.jpg',</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3445.jpg',</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3449.jpg',</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3451.jpg',</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3457.jpg',</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3470.jpg',</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3474.jpg',</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="2"/>
+        <v>'MG_3476.jpg',</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B258" si="3">"'"&amp;A195&amp;"',"</f>
+        <v>'MG_3477.jpg',</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3481.jpg',</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3485.jpg',</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3487.jpg',</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3489.jpg',</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3490.jpg',</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3491.jpg',</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3492.jpg',</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3498.jpg',</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3503.jpg',</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3504.jpg',</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3510.jpg',</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3511.jpg',</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3512.jpg',</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3516.jpg',</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3518.jpg',</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3519.jpg',</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3520.jpg',</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3521.jpg',</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3523.jpg',</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3524.jpg',</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3529.jpg',</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3541.jpg',</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3547.jpg',</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3552.jpg',</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3555.jpg',</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3556.jpg',</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3559.jpg',</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3572.jpg',</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3578.jpg',</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3580.jpg',</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3583.jpg',</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3594.jpg',</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3598.jpg',</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3616.jpg',</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3622.jpg',</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3626.jpg',</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3629.jpg',</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3631.jpg',</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3633.jpg',</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3634.jpg',</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3635.jpg',</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3639.jpg',</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3641.jpg',</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3642.jpg',</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3643.jpg',</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3644.jpg',</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3646.jpg',</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3647.jpg',</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3648.jpg',</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3649.jpg',</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3650.jpg',</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3651.jpg',</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3652.jpg',</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3653.jpg',</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3656.jpg',</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3660.jpg',</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3662.jpg',</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3665.jpg',</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3665_1.jpg',</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3668.jpg',</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3669.jpg',</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3670.jpg',</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="3"/>
+        <v>'MG_3671.jpg',</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B317" si="4">"'"&amp;A259&amp;"',"</f>
+        <v>'MG_3672.jpg',</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3674.jpg',</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3675.jpg',</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3676.jpg',</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3677.jpg',</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3678.jpg',</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3679.jpg',</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3680.jpg',</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3681.jpg',</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3683.jpg',</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3688.jpg',</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3692.jpg',</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3694.jpg',</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3696.jpg',</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3698.jpg',</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3701.jpg',</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3704.jpg',</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3706.jpg',</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3710.jpg',</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3711.jpg',</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3713_1.jpg',</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3715.jpg',</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3721.jpg',</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3726.jpg',</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3727.jpg',</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3728_1.jpg',</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3729.jpg',</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3730.jpg',</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3733.jpg',</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3735.jpg',</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3737.jpg',</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3739.jpg',</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3741.jpg',</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3742_1.jpg',</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3744.jpg',</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3747.jpg',</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3751.jpg',</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3754.jpg',</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3758.jpg',</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3759.jpg',</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3760.jpg',</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3761.jpg',</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3762.jpg',</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3763.jpg',</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3764.jpg',</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3765.jpg',</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3766.jpg',</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3768.jpg',</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3770.jpg',</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3772.jpg',</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3776.jpg',</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3778.jpg',</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3779.jpg',</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3782.jpg',</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3784.jpg',</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3789.jpg',</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3807.jpg',</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3809.jpg',</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" t="str">
+        <f t="shared" si="4"/>
+        <v>'MG_3810.jpg',</v>
       </c>
     </row>
   </sheetData>

--- a/archivos_listados.xlsx
+++ b/archivos_listados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1594 +448,6238 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DSC_0330.jpg</t>
+          <t>DSC_0237.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>'DSC_0330.jpg',</t>
+          <t>'DSC_0237.jpg',</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DSC_0331.jpg</t>
+          <t>DSC_0242.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>'DSC_0331.jpg',</t>
+          <t>'DSC_0242.jpg',</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DSC_0332.jpg</t>
+          <t>DSC_0246.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'DSC_0332.jpg',</t>
+          <t>'DSC_0246.jpg',</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DSC_0333.jpg</t>
+          <t>DSC_0250.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>'DSC_0333.jpg',</t>
+          <t>'DSC_0250.jpg',</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DSC_0334.jpg</t>
+          <t>DSC_0251.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>'DSC_0334.jpg',</t>
+          <t>'DSC_0251.jpg',</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DSC_0335.jpg</t>
+          <t>DSC_0252.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>'DSC_0335.jpg',</t>
+          <t>'DSC_0252.jpg',</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DSC_0336.jpg</t>
+          <t>DSC_0253.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>'DSC_0336.jpg',</t>
+          <t>'DSC_0253.jpg',</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DSC_0338.jpg</t>
+          <t>DSC_0254.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>'DSC_0338.jpg',</t>
+          <t>'DSC_0254.jpg',</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DSC_0339.jpg</t>
+          <t>DSC_0255.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>'DSC_0339.jpg',</t>
+          <t>'DSC_0255.jpg',</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DSC_0340.jpg</t>
+          <t>DSC_0256.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>'DSC_0340.jpg',</t>
+          <t>'DSC_0256.jpg',</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DSC_0341.jpg</t>
+          <t>DSC_0257.jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>'DSC_0341.jpg',</t>
+          <t>'DSC_0257.jpg',</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DSC_0342.jpg</t>
+          <t>DSC_0258.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>'DSC_0342.jpg',</t>
+          <t>'DSC_0258.jpg',</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DSC_0343.jpg</t>
+          <t>DSC_0259.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>'DSC_0343.jpg',</t>
+          <t>'DSC_0259.jpg',</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DSC_0344.jpg</t>
+          <t>DSC_0262.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>'DSC_0344.jpg',</t>
+          <t>'DSC_0262.jpg',</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DSC_0345.jpg</t>
+          <t>DSC_0263.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>'DSC_0345.jpg',</t>
+          <t>'DSC_0263.jpg',</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DSC_0346.jpg</t>
+          <t>DSC_0264.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>'DSC_0346.jpg',</t>
+          <t>'DSC_0264.jpg',</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DSC_0347.jpg</t>
+          <t>DSC_0265.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>'DSC_0347.jpg',</t>
+          <t>'DSC_0265.jpg',</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DSC_0348.jpg</t>
+          <t>DSC_0266.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>'DSC_0348.jpg',</t>
+          <t>'DSC_0266.jpg',</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DSC_0349.jpg</t>
+          <t>DSC_0267.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>'DSC_0349.jpg',</t>
+          <t>'DSC_0267.jpg',</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DSC_0350.jpg</t>
+          <t>DSC_0269.jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>'DSC_0350.jpg',</t>
+          <t>'DSC_0269.jpg',</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DSC_0351.jpg</t>
+          <t>DSC_0270.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>'DSC_0351.jpg',</t>
+          <t>'DSC_0270.jpg',</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DSC_0352.jpg</t>
+          <t>DSC_0271.jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>'DSC_0352.jpg',</t>
+          <t>'DSC_0271.jpg',</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DSC_0353.jpg</t>
+          <t>DSC_0272.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>'DSC_0353.jpg',</t>
+          <t>'DSC_0272.jpg',</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DSC_0354.jpg</t>
+          <t>DSC_0273.jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>'DSC_0354.jpg',</t>
+          <t>'DSC_0273.jpg',</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DSC_0356.jpg</t>
+          <t>DSC_0274.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>'DSC_0356.jpg',</t>
+          <t>'DSC_0274.jpg',</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DSC_0357.jpg</t>
+          <t>DSC_0276.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>'DSC_0357.jpg',</t>
+          <t>'DSC_0276.jpg',</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DSC_0358.jpg</t>
+          <t>DSC_0277.jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>'DSC_0358.jpg',</t>
+          <t>'DSC_0277.jpg',</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DSC_0359.jpg</t>
+          <t>DSC_0278.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>'DSC_0359.jpg',</t>
+          <t>'DSC_0278.jpg',</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DSC_0361.jpg</t>
+          <t>DSC_0279.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>'DSC_0361.jpg',</t>
+          <t>'DSC_0279.jpg',</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DSC_0362.jpg</t>
+          <t>DSC_0280.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>'DSC_0362.jpg',</t>
+          <t>'DSC_0280.jpg',</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DSC_0363.jpg</t>
+          <t>DSC_0283.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>'DSC_0363.jpg',</t>
+          <t>'DSC_0283.jpg',</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DSC_0364.jpg</t>
+          <t>DSC_0285.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>'DSC_0364.jpg',</t>
+          <t>'DSC_0285.jpg',</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DSC_0365.jpg</t>
+          <t>DSC_0290.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>'DSC_0365.jpg',</t>
+          <t>'DSC_0290.jpg',</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DSC_0367.jpg</t>
+          <t>DSC_0291.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>'DSC_0367.jpg',</t>
+          <t>'DSC_0291.jpg',</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DSC_0368.jpg</t>
+          <t>DSC_0292.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>'DSC_0368.jpg',</t>
+          <t>'DSC_0292.jpg',</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DSC_0370.jpg</t>
+          <t>DSC_0293.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>'DSC_0370.jpg',</t>
+          <t>'DSC_0293.jpg',</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DSC_0371.jpg</t>
+          <t>DSC_0294.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>'DSC_0371.jpg',</t>
+          <t>'DSC_0294.jpg',</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DSC_0372.jpg</t>
+          <t>DSC_0295.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>'DSC_0372.jpg',</t>
+          <t>'DSC_0295.jpg',</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DSC_0373.jpg</t>
+          <t>DSC_0296.jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>'DSC_0373.jpg',</t>
+          <t>'DSC_0296.jpg',</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DSC_0374.jpg</t>
+          <t>DSC_0297.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>'DSC_0374.jpg',</t>
+          <t>'DSC_0297.jpg',</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DSC_0376.jpg</t>
+          <t>DSC_0300.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>'DSC_0376.jpg',</t>
+          <t>'DSC_0300.jpg',</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DSC_0377.jpg</t>
+          <t>DSC_0301.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>'DSC_0377.jpg',</t>
+          <t>'DSC_0301.jpg',</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DSC_0381.jpg</t>
+          <t>DSC_0302.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>'DSC_0381.jpg',</t>
+          <t>'DSC_0302.jpg',</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DSC_0382.jpg</t>
+          <t>DSC_0304.jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>'DSC_0382.jpg',</t>
+          <t>'DSC_0304.jpg',</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DSC_0383.jpg</t>
+          <t>DSC_0305.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>'DSC_0383.jpg',</t>
+          <t>'DSC_0305.jpg',</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DSC_0384.jpg</t>
+          <t>DSC_0306.jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>'DSC_0384.jpg',</t>
+          <t>'DSC_0306.jpg',</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DSC_0388.jpg</t>
+          <t>DSC_0307.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>'DSC_0388.jpg',</t>
+          <t>'DSC_0307.jpg',</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DSC_0389.jpg</t>
+          <t>DSC_0308.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>'DSC_0389.jpg',</t>
+          <t>'DSC_0308.jpg',</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DSC_0390.jpg</t>
+          <t>DSC_0309.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>'DSC_0390.jpg',</t>
+          <t>'DSC_0309.jpg',</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DSC_0391.jpg</t>
+          <t>DSC_0310.jpg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>'DSC_0391.jpg',</t>
+          <t>'DSC_0310.jpg',</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DSC_0400.jpg</t>
+          <t>DSC_0311.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>'DSC_0400.jpg',</t>
+          <t>'DSC_0311.jpg',</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DSC_0401.jpg</t>
+          <t>DSC_0312.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>'DSC_0401.jpg',</t>
+          <t>'DSC_0312.jpg',</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DSC_0402.jpg</t>
+          <t>DSC_0314.jpg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>'DSC_0402.jpg',</t>
+          <t>'DSC_0314.jpg',</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DSC_0403.jpg</t>
+          <t>DSC_0315.jpg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>'DSC_0403.jpg',</t>
+          <t>'DSC_0315.jpg',</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DSC_0404.jpg</t>
+          <t>DSC_0316.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>'DSC_0404.jpg',</t>
+          <t>'DSC_0316.jpg',</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DSC_0405.jpg</t>
+          <t>DSC_0317.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>'DSC_0405.jpg',</t>
+          <t>'DSC_0317.jpg',</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DSC_0406.jpg</t>
+          <t>DSC_0319.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>'DSC_0406.jpg',</t>
+          <t>'DSC_0319.jpg',</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DSC_0408.jpg</t>
+          <t>DSC_0322.jpg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>'DSC_0408.jpg',</t>
+          <t>'DSC_0322.jpg',</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DSC_0409.jpg</t>
+          <t>DSC_0323.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>'DSC_0409.jpg',</t>
+          <t>'DSC_0323.jpg',</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DSC_0410.jpg</t>
+          <t>DSC_0324.jpg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>'DSC_0410.jpg',</t>
+          <t>'DSC_0324.jpg',</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DSC_0416.jpg</t>
+          <t>DSC_0325.jpg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>'DSC_0416.jpg',</t>
+          <t>'DSC_0325.jpg',</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DSC_0417.jpg</t>
+          <t>DSC_0327.jpg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>'DSC_0417.jpg',</t>
+          <t>'DSC_0327.jpg',</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DSC_0418.jpg</t>
+          <t>DSC_0328.jpg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>'DSC_0418.jpg',</t>
+          <t>'DSC_0328.jpg',</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DSC_0419.jpg</t>
+          <t>DSC_0329.jpg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>'DSC_0419.jpg',</t>
+          <t>'DSC_0329.jpg',</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DSC_0420.jpg</t>
+          <t>DSC_0330.jpg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>'DSC_0420.jpg',</t>
+          <t>'DSC_0330.jpg',</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DSC_0421.jpg</t>
+          <t>DSC_0331.jpg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>'DSC_0421.jpg',</t>
+          <t>'DSC_0331.jpg',</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DSC_0422.jpg</t>
+          <t>DSC_0337.jpg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>'DSC_0422.jpg',</t>
+          <t>'DSC_0337.jpg',</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DSC_0423.jpg</t>
+          <t>DSC_0338.jpg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>'DSC_0423.jpg',</t>
+          <t>'DSC_0338.jpg',</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DSC_0424.jpg</t>
+          <t>DSC_0344.jpg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>'DSC_0424.jpg',</t>
+          <t>'DSC_0344.jpg',</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DSC_0425.jpg</t>
+          <t>DSC_0347.jpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>'DSC_0425.jpg',</t>
+          <t>'DSC_0347.jpg',</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DSC_0426.jpg</t>
+          <t>DSC_0348.jpg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>'DSC_0426.jpg',</t>
+          <t>'DSC_0348.jpg',</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DSC_0427.jpg</t>
+          <t>DSC_0349.jpg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>'DSC_0427.jpg',</t>
+          <t>'DSC_0349.jpg',</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DSC_0429.jpg</t>
+          <t>DSC_0351.jpg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>'DSC_0429.jpg',</t>
+          <t>'DSC_0351.jpg',</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DSC_0431.jpg</t>
+          <t>DSC_0352.jpg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>'DSC_0431.jpg',</t>
+          <t>'DSC_0352.jpg',</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DSC_0433.jpg</t>
+          <t>DSC_0353.jpg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>'DSC_0433.jpg',</t>
+          <t>'DSC_0353.jpg',</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DSC_0434.jpg</t>
+          <t>DSC_0354.jpg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>'DSC_0434.jpg',</t>
+          <t>'DSC_0354.jpg',</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DSC_0435.jpg</t>
+          <t>DSC_0355.jpg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>'DSC_0435.jpg',</t>
+          <t>'DSC_0355.jpg',</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DSC_0436.jpg</t>
+          <t>DSC_0356.jpg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>'DSC_0436.jpg',</t>
+          <t>'DSC_0356.jpg',</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DSC_0437.jpg</t>
+          <t>DSC_0357.jpg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>'DSC_0437.jpg',</t>
+          <t>'DSC_0357.jpg',</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DSC_0442.jpg</t>
+          <t>DSC_0358.jpg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>'DSC_0442.jpg',</t>
+          <t>'DSC_0358.jpg',</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DSC_0443.jpg</t>
+          <t>DSC_0359.jpg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>'DSC_0443.jpg',</t>
+          <t>'DSC_0359.jpg',</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DSC_0444.jpg</t>
+          <t>DSC_0360.jpg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>'DSC_0444.jpg',</t>
+          <t>'DSC_0360.jpg',</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DSC_0445.jpg</t>
+          <t>DSC_0361.jpg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>'DSC_0445.jpg',</t>
+          <t>'DSC_0361.jpg',</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DSC_0446.jpg</t>
+          <t>DSC_0362.jpg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>'DSC_0446.jpg',</t>
+          <t>'DSC_0362.jpg',</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DSC_0447.jpg</t>
+          <t>DSC_0363.jpg</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>'DSC_0447.jpg',</t>
+          <t>'DSC_0363.jpg',</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DSC_0448.jpg</t>
+          <t>DSC_0364.jpg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>'DSC_0448.jpg',</t>
+          <t>'DSC_0364.jpg',</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DSC_0449.jpg</t>
+          <t>DSC_0365.jpg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>'DSC_0449.jpg',</t>
+          <t>'DSC_0365.jpg',</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DSC_0450.jpg</t>
+          <t>DSC_0366.jpg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>'DSC_0450.jpg',</t>
+          <t>'DSC_0366.jpg',</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DSC_0451.jpg</t>
+          <t>DSC_0368.jpg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>'DSC_0451.jpg',</t>
+          <t>'DSC_0368.jpg',</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DSC_0452.jpg</t>
+          <t>DSC_0370.jpg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>'DSC_0452.jpg',</t>
+          <t>'DSC_0370.jpg',</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DSC_0453.jpg</t>
+          <t>DSC_0371.jpg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>'DSC_0453.jpg',</t>
+          <t>'DSC_0371.jpg',</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DSC_0454.jpg</t>
+          <t>DSC_0372.jpg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>'DSC_0454.jpg',</t>
+          <t>'DSC_0372.jpg',</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DSC_0455.jpg</t>
+          <t>DSC_0373.jpg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>'DSC_0455.jpg',</t>
+          <t>'DSC_0373.jpg',</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DSC_0457.jpg</t>
+          <t>DSC_0374.jpg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>'DSC_0457.jpg',</t>
+          <t>'DSC_0374.jpg',</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DSC_0458.jpg</t>
+          <t>DSC_0375.jpg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>'DSC_0458.jpg',</t>
+          <t>'DSC_0375.jpg',</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DSC_0459.jpg</t>
+          <t>DSC_0376.jpg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>'DSC_0459.jpg',</t>
+          <t>'DSC_0376.jpg',</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DSC_0460.jpg</t>
+          <t>DSC_0377.jpg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>'DSC_0460.jpg',</t>
+          <t>'DSC_0377.jpg',</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DSC_0461.jpg</t>
+          <t>DSC_0378.jpg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>'DSC_0461.jpg',</t>
+          <t>'DSC_0378.jpg',</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DSC_0462.jpg</t>
+          <t>DSC_0379.jpg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>'DSC_0462.jpg',</t>
+          <t>'DSC_0379.jpg',</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DSC_0463.jpg</t>
+          <t>DSC_0380.jpg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>'DSC_0463.jpg',</t>
+          <t>'DSC_0380.jpg',</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DSC_0464.jpg</t>
+          <t>DSC_0381.jpg</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>'DSC_0464.jpg',</t>
+          <t>'DSC_0381.jpg',</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DSC_0474.jpg</t>
+          <t>DSC_0383.jpg</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>'DSC_0474.jpg',</t>
+          <t>'DSC_0383.jpg',</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DSC_0475.jpg</t>
+          <t>DSC_0385.jpg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>'DSC_0475.jpg',</t>
+          <t>'DSC_0385.jpg',</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DSC_0476.jpg</t>
+          <t>DSC_0388.jpg</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>'DSC_0476.jpg',</t>
+          <t>'DSC_0388.jpg',</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DSC_0477.jpg</t>
+          <t>DSC_0389.jpg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>'DSC_0477.jpg',</t>
+          <t>'DSC_0389.jpg',</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DSC_0478.jpg</t>
+          <t>DSC_0390.jpg</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>'DSC_0478.jpg',</t>
+          <t>'DSC_0390.jpg',</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DSC_0479.jpg</t>
+          <t>DSC_0391.jpg</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>'DSC_0479.jpg',</t>
+          <t>'DSC_0391.jpg',</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DSC_0504.jpg</t>
+          <t>DSC_0392.jpg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>'DSC_0504.jpg',</t>
+          <t>'DSC_0392.jpg',</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DSC_0507.jpg</t>
+          <t>DSC_0393.jpg</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>'DSC_0507.jpg',</t>
+          <t>'DSC_0393.jpg',</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DSC_0510.jpg</t>
+          <t>DSC_0394.jpg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>'DSC_0510.jpg',</t>
+          <t>'DSC_0394.jpg',</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DSC_0512.jpg</t>
+          <t>DSC_0396.jpg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>'DSC_0512.jpg',</t>
+          <t>'DSC_0396.jpg',</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DSC_0514.jpg</t>
+          <t>DSC_0397.jpg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>'DSC_0514.jpg',</t>
+          <t>'DSC_0397.jpg',</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DSC_0515.jpg</t>
+          <t>DSC_0398.jpg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>'DSC_0515.jpg',</t>
+          <t>'DSC_0398.jpg',</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DSC_0516.jpg</t>
+          <t>DSC_0399.jpg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>'DSC_0516.jpg',</t>
+          <t>'DSC_0399.jpg',</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DSC_0518.jpg</t>
+          <t>DSC_0401.jpg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>'DSC_0518.jpg',</t>
+          <t>'DSC_0401.jpg',</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DSC_0519.jpg</t>
+          <t>DSC_0402.jpg</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>'DSC_0519.jpg',</t>
+          <t>'DSC_0402.jpg',</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DSC_0520.jpg</t>
+          <t>DSC_0404.jpg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>'DSC_0520.jpg',</t>
+          <t>'DSC_0404.jpg',</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DSC_0522.jpg</t>
+          <t>DSC_0406.jpg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>'DSC_0522.jpg',</t>
+          <t>'DSC_0406.jpg',</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DSC_0523.jpg</t>
+          <t>DSC_0409.jpg</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>'DSC_0523.jpg',</t>
+          <t>'DSC_0409.jpg',</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DSC_0525.jpg</t>
+          <t>DSC_0410.jpg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>'DSC_0525.jpg',</t>
+          <t>'DSC_0410.jpg',</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DSC_0526.jpg</t>
+          <t>DSC_0411.jpg</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>'DSC_0526.jpg',</t>
+          <t>'DSC_0411.jpg',</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DSC_0527.jpg</t>
+          <t>DSC_0412.jpg</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>'DSC_0527.jpg',</t>
+          <t>'DSC_0412.jpg',</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DSC_0529.jpg</t>
+          <t>DSC_0414.jpg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>'DSC_0529.jpg',</t>
+          <t>'DSC_0414.jpg',</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DSC_0530.jpg</t>
+          <t>DSC_0417.jpg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>'DSC_0530.jpg',</t>
+          <t>'DSC_0417.jpg',</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DSC_0531.jpg</t>
+          <t>DSC_0418.jpg</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>'DSC_0531.jpg',</t>
+          <t>'DSC_0418.jpg',</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DSC_0532.jpg</t>
+          <t>DSC_0419.jpg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>'DSC_0532.jpg',</t>
+          <t>'DSC_0419.jpg',</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DSC_0533.jpg</t>
+          <t>DSC_0420.jpg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>'DSC_0533.jpg',</t>
+          <t>'DSC_0420.jpg',</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DSC_0534.jpg</t>
+          <t>DSC_0421.jpg</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>'DSC_0534.jpg',</t>
+          <t>'DSC_0421.jpg',</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DSC_0536.jpg</t>
+          <t>DSC_0423.jpg</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>'DSC_0536.jpg',</t>
+          <t>'DSC_0423.jpg',</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DSC_0537.jpg</t>
+          <t>DSC_0424.jpg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>'DSC_0537.jpg',</t>
+          <t>'DSC_0424.jpg',</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DSC_0538.jpg</t>
+          <t>DSC_0425.jpg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>'DSC_0538.jpg',</t>
+          <t>'DSC_0425.jpg',</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DSC_0539.jpg</t>
+          <t>DSC_0427.jpg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>'DSC_0539.jpg',</t>
+          <t>'DSC_0427.jpg',</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>DSC_0428.jpg</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>'DSC_0428.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>DSC_0429.jpg</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>'DSC_0429.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>DSC_0430.jpg</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>'DSC_0430.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>DSC_0431.jpg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>'DSC_0431.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>DSC_0432.jpg</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>'DSC_0432.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>DSC_0433.jpg</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>'DSC_0433.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>DSC_0434.jpg</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>'DSC_0434.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DSC_0435.jpg</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>'DSC_0435.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>DSC_0436.jpg</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>'DSC_0436.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>DSC_0437.jpg</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>'DSC_0437.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>DSC_0438.jpg</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>'DSC_0438.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>DSC_0439.jpg</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>'DSC_0439.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>DSC_0440.jpg</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>'DSC_0440.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>DSC_0441.jpg</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>'DSC_0441.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>DSC_0442.jpg</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>'DSC_0442.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>DSC_0443.jpg</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>'DSC_0443.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>DSC_0445.jpg</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>'DSC_0445.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>DSC_0446.jpg</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>'DSC_0446.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>DSC_0447.jpg</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>'DSC_0447.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>DSC_0448.jpg</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>'DSC_0448.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>DSC_0450.jpg</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>'DSC_0450.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>DSC_0451.jpg</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>'DSC_0451.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>DSC_0452.jpg</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>'DSC_0452.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>DSC_0453.jpg</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>'DSC_0453.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>DSC_0454.jpg</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>'DSC_0454.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>DSC_0455.jpg</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>'DSC_0455.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DSC_0456.jpg</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>'DSC_0456.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DSC_0457.jpg</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>'DSC_0457.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>DSC_0458.jpg</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>'DSC_0458.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>DSC_0459.jpg</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>'DSC_0459.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>DSC_0460.jpg</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>'DSC_0460.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>DSC_0462.jpg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>'DSC_0462.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>DSC_0464.jpg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>'DSC_0464.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>DSC_0465.jpg</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>'DSC_0465.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>DSC_0466.jpg</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>'DSC_0466.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>DSC_0467.jpg</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>'DSC_0467.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>DSC_0468.jpg</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>'DSC_0468.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>DSC_0469.jpg</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>'DSC_0469.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>DSC_0471.jpg</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>'DSC_0471.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>DSC_0472.jpg</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>'DSC_0472.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>DSC_0473.jpg</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>'DSC_0473.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>DSC_0474.jpg</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>'DSC_0474.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>DSC_0475.jpg</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>'DSC_0475.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>DSC_0477.jpg</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>'DSC_0477.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>DSC_0479.jpg</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>'DSC_0479.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>DSC_0480.jpg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>'DSC_0480.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>DSC_0481.jpg</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>'DSC_0481.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>DSC_0482.jpg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>'DSC_0482.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>DSC_0483.jpg</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>'DSC_0483.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>DSC_0484.jpg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>'DSC_0484.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>DSC_0485.jpg</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>'DSC_0485.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>DSC_0486.jpg</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>'DSC_0486.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DSC_0488.jpg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>'DSC_0488.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>DSC_0489.jpg</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>'DSC_0489.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>DSC_0490.jpg</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>'DSC_0490.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>DSC_0493.jpg</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>'DSC_0493.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>DSC_0494.jpg</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>'DSC_0494.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>DSC_0495.jpg</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>'DSC_0495.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>DSC_0496.jpg</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>'DSC_0496.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DSC_0500.jpg</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>'DSC_0500.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>DSC_0501.jpg</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>'DSC_0501.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DSC_0502.jpg</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>'DSC_0502.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>DSC_0503.jpg</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>'DSC_0503.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>DSC_0504.jpg</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>'DSC_0504.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>DSC_0505.jpg</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>'DSC_0505.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>DSC_0506.jpg</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>'DSC_0506.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>DSC_0508.jpg</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>'DSC_0508.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>DSC_0509.jpg</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>'DSC_0509.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DSC_0510.jpg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>'DSC_0510.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DSC_0511.jpg</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>'DSC_0511.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DSC_0512.jpg</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>'DSC_0512.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>DSC_0513.jpg</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>'DSC_0513.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>DSC_0514.jpg</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>'DSC_0514.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>DSC_0515.jpg</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>'DSC_0515.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>DSC_0516.jpg</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>'DSC_0516.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DSC_0517.jpg</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>'DSC_0517.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DSC_0518.jpg</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>'DSC_0518.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>DSC_0519.jpg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>'DSC_0519.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>DSC_0520.jpg</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>'DSC_0520.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>DSC_0521.jpg</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>'DSC_0521.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>DSC_0522.jpg</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>'DSC_0522.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DSC_0523.jpg</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>'DSC_0523.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>DSC_0524.jpg</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>'DSC_0524.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>DSC_0525.jpg</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>'DSC_0525.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>DSC_0526.jpg</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>'DSC_0526.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>DSC_0527.jpg</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>'DSC_0527.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>DSC_0529.jpg</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>'DSC_0529.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>DSC_0531.jpg</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>'DSC_0531.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>DSC_0532.jpg</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>'DSC_0532.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>DSC_0533.jpg</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>'DSC_0533.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>DSC_0534.jpg</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>'DSC_0534.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>DSC_0535.jpg</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>'DSC_0535.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>DSC_0536.jpg</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>'DSC_0536.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>DSC_0537.jpg</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>'DSC_0537.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>DSC_0538.jpg</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>'DSC_0538.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DSC_0539.jpg</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>'DSC_0539.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>DSC_0540.jpg</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>'DSC_0540.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>DSC_0541.jpg</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>'DSC_0541.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>DSC_0542.jpg</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>'DSC_0542.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>DSC_0543.jpg</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>'DSC_0543.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>DSC_0544.jpg</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>'DSC_0544.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>DSC_0545.jpg</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>'DSC_0545.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>DSC_0546.jpg</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>'DSC_0546.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>DSC_0547.jpg</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>'DSC_0547.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>DSC_0548.jpg</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>'DSC_0548.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DSC_0549.jpg</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>'DSC_0549.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>DSC_0550.jpg</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>'DSC_0550.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>DSC_0551.jpg</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>'DSC_0551.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>DSC_0552.jpg</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>'DSC_0552.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>DSC_0553.jpg</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>'DSC_0553.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>DSC_0556.jpg</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>'DSC_0556.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>DSC_0560.jpg</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>'DSC_0560.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>DSC_0562.jpg</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>'DSC_0562.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>DSC_0564.jpg</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>'DSC_0564.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>DSC_0565.jpg</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>'DSC_0565.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>DSC_0566.jpg</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>'DSC_0566.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>DSC_0567.jpg</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>'DSC_0567.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>DSC_0569.jpg</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>'DSC_0569.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>DSC_0570.jpg</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>'DSC_0570.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>DSC_0571.jpg</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>'DSC_0571.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>DSC_0572.jpg</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>'DSC_0572.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>DSC_0573.jpg</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>'DSC_0573.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>DSC_0574.jpg</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>'DSC_0574.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>DSC_0577.jpg</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>'DSC_0577.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>DSC_0578.jpg</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>'DSC_0578.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>DSC_0580.jpg</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>'DSC_0580.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>DSC_0581.jpg</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>'DSC_0581.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>DSC_0582.jpg</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>'DSC_0582.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>DSC_0583.jpg</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>'DSC_0583.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>DSC_0584.jpg</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>'DSC_0584.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>DSC_0585.jpg</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>'DSC_0585.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>DSC_0586.jpg</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>'DSC_0586.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>DSC_0589.jpg</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>'DSC_0589.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>DSC_0590.jpg</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>'DSC_0590.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>DSC_0591.jpg</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>'DSC_0591.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>DSC_0593.jpg</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>'DSC_0593.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>DSC_0594.jpg</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>'DSC_0594.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>DSC_0596.jpg</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>'DSC_0596.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>DSC_0597.jpg</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>'DSC_0597.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>DSC_0598.jpg</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>'DSC_0598.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>DSC_0599.jpg</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>'DSC_0599.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>DSC_0601.jpg</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>'DSC_0601.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>DSC_0602.jpg</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>'DSC_0602.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>DSC_0603.jpg</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>'DSC_0603.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>DSC_0604.jpg</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>'DSC_0604.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>DSC_0605.jpg</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>'DSC_0605.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>DSC_0606.jpg</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>'DSC_0606.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>DSC_0608.jpg</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>'DSC_0608.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>DSC_0609.jpg</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>'DSC_0609.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>DSC_0610.jpg</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>'DSC_0610.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>DSC_0611.jpg</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>'DSC_0611.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>DSC_0614.jpg</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>'DSC_0614.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>DSC_0615.jpg</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>'DSC_0615.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>DSC_0617.jpg</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>'DSC_0617.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>DSC_0618.jpg</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>'DSC_0618.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>DSC_0619.jpg</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>'DSC_0619.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>DSC_0621.jpg</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>'DSC_0621.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>DSC_0623.jpg</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>'DSC_0623.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>DSC_0625.jpg</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>'DSC_0625.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>DSC_0626.jpg</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>'DSC_0626.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>DSC_0627.jpg</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>'DSC_0627.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>DSC_0628.jpg</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>'DSC_0628.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>DSC_0629.jpg</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>'DSC_0629.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>DSC_0630.jpg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>'DSC_0630.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>DSC_0631.jpg</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>'DSC_0631.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>DSC_0632.jpg</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>'DSC_0632.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>DSC_0633.jpg</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>'DSC_0633.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>DSC_0634.jpg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>'DSC_0634.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>DSC_0636.jpg</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>'DSC_0636.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>DSC_0637.jpg</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>'DSC_0637.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>DSC_0638.jpg</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>'DSC_0638.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>DSC_0639.jpg</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>'DSC_0639.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>DSC_0640.jpg</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>'DSC_0640.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>DSC_0642.jpg</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>'DSC_0642.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>DSC_0643.jpg</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>'DSC_0643.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>DSC_0644.jpg</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>'DSC_0644.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>DSC_0646.jpg</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>'DSC_0646.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>DSC_0647.jpg</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>'DSC_0647.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>DSC_0649.jpg</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>'DSC_0649.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>DSC_0651.jpg</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>'DSC_0651.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>DSC_0652.jpg</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>'DSC_0652.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>DSC_0653.jpg</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>'DSC_0653.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>DSC_0654.jpg</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>'DSC_0654.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>DSC_0655.jpg</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>'DSC_0655.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>DSC_0656.jpg</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>'DSC_0656.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>DSC_0658.jpg</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>'DSC_0658.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>DSC_0659.jpg</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>'DSC_0659.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>DSC_0661.jpg</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>'DSC_0661.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>DSC_0662.jpg</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>'DSC_0662.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>DSC_0663.jpg</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>'DSC_0663.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>DSC_0664.jpg</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>'DSC_0664.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>DSC_0665.jpg</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>'DSC_0665.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>DSC_0667.jpg</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>'DSC_0667.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>DSC_0668.jpg</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>'DSC_0668.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>DSC_0669.jpg</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>'DSC_0669.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>DSC_0670.jpg</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>'DSC_0670.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>DSC_0671.jpg</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>'DSC_0671.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>DSC_0673.jpg</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>'DSC_0673.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>DSC_0674.jpg</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>'DSC_0674.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>DSC_0675.jpg</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>'DSC_0675.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>DSC_0676.jpg</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>'DSC_0676.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>DSC_0677.jpg</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>'DSC_0677.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>DSC_0678.jpg</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>'DSC_0678.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>DSC_0679.jpg</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>'DSC_0679.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>DSC_0680.jpg</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>'DSC_0680.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>DSC_0681.jpg</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>'DSC_0681.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>DSC_0682.jpg</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>'DSC_0682.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>DSC_0684.jpg</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>'DSC_0684.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>DSC_0687.jpg</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>'DSC_0687.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>DSC_0691.jpg</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>'DSC_0691.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>DSC_0694.jpg</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>'DSC_0694.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>DSC_0695.jpg</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>'DSC_0695.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>DSC_0697.jpg</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>'DSC_0697.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>DSC_0699.jpg</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>'DSC_0699.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>DSC_0700.jpg</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>'DSC_0700.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>DSC_0701.jpg</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>'DSC_0701.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>DSC_0702.jpg</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>'DSC_0702.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>DSC_0703.jpg</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>'DSC_0703.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>DSC_0704.jpg</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>'DSC_0704.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>DSC_0705.jpg</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>'DSC_0705.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>DSC_0706.jpg</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>'DSC_0706.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>DSC_0708.jpg</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>'DSC_0708.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>DSC_0712.jpg</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>'DSC_0712.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>DSC_0714.jpg</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>'DSC_0714.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>DSC_0717.jpg</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>'DSC_0717.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>DSC_0718.jpg</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>'DSC_0718.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>DSC_0720.jpg</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>'DSC_0720.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>DSC_0721.jpg</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>'DSC_0721.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>DSC_0728.jpg</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>'DSC_0728.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>DSC_0729.jpg</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>'DSC_0729.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>DSC_0730.jpg</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>'DSC_0730.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>DSC_0732.jpg</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>'DSC_0732.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>DSC_0734.jpg</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>'DSC_0734.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>DSC_0736.jpg</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>'DSC_0736.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>DSC_0737.jpg</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>'DSC_0737.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>DSC_0738.jpg</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>'DSC_0738.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>DSC_0739.jpg</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>'DSC_0739.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>DSC_0740.jpg</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>'DSC_0740.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>DSC_0741.jpg</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>'DSC_0741.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>DSC_0742.jpg</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>'DSC_0742.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>DSC_0743.jpg</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>'DSC_0743.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>DSC_0744.jpg</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>'DSC_0744.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>DSC_0746.jpg</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>'DSC_0746.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>DSC_0747.jpg</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>'DSC_0747.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>DSC_0748.jpg</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>'DSC_0748.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>DSC_0751.jpg</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>'DSC_0751.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>DSC_0754.jpg</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>'DSC_0754.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>DSC_0755.jpg</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>'DSC_0755.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>DSC_0756.jpg</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>'DSC_0756.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>DSC_0769.jpg</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>'DSC_0769.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>DSC_0770.jpg</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>'DSC_0770.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>DSC_0771.jpg</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>'DSC_0771.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>DSC_0772.jpg</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>'DSC_0772.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>DSC_0773.jpg</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>'DSC_0773.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>DSC_0774.jpg</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>'DSC_0774.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>DSC_0775.jpg</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>'DSC_0775.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>DSC_0776.jpg</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>'DSC_0776.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>DSC_0778.jpg</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>'DSC_0778.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>DSC_0780.jpg</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>'DSC_0780.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>DSC_0781.jpg</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>'DSC_0781.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>DSC_0782.jpg</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>'DSC_0782.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>DSC_0783.jpg</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>'DSC_0783.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>DSC_0784.jpg</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>'DSC_0784.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>DSC_0785.jpg</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>'DSC_0785.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>DSC_0786.jpg</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>'DSC_0786.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>DSC_0788.jpg</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>'DSC_0788.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>DSC_0789.jpg</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>'DSC_0789.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>DSC_0791.jpg</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>'DSC_0791.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>DSC_0792.jpg</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>'DSC_0792.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>DSC_0793.jpg</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>'DSC_0793.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>DSC_0796.jpg</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>'DSC_0796.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>DSC_0797.jpg</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>'DSC_0797.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>DSC_0798.jpg</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>'DSC_0798.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>DSC_0799.jpg</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>'DSC_0799.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>DSC_0800.jpg</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>'DSC_0800.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>DSC_0802.jpg</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>'DSC_0802.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>DSC_0804.jpg</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>'DSC_0804.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>DSC_0805.jpg</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>'DSC_0805.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>DSC_0807.jpg</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>'DSC_0807.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>DSC_0809.jpg</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>'DSC_0809.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>DSC_0810.jpg</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>'DSC_0810.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>DSC_0812.jpg</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>'DSC_0812.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>DSC_0813.jpg</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>'DSC_0813.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>DSC_0814.jpg</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>'DSC_0814.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>DSC_0815.jpg</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>'DSC_0815.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>DSC_0816.jpg</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>'DSC_0816.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>DSC_0817.jpg</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>'DSC_0817.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>DSC_0819.jpg</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>'DSC_0819.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>DSC_0820.jpg</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>'DSC_0820.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>DSC_0821.jpg</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>'DSC_0821.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>DSC_0822.jpg</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>'DSC_0822.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>DSC_0823.jpg</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>'DSC_0823.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>DSC_0824.jpg</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>'DSC_0824.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>DSC_0825.jpg</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>'DSC_0825.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>DSC_0826.jpg</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>'DSC_0826.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>DSC_0827.jpg</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>'DSC_0827.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>DSC_0828.jpg</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>'DSC_0828.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>DSC_0829.jpg</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>'DSC_0829.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>DSC_0830.jpg</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>'DSC_0830.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>DSC_0831.jpg</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>'DSC_0831.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>DSC_0832.jpg</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>'DSC_0832.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>DSC_0835.jpg</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>'DSC_0835.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>DSC_0836.jpg</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>'DSC_0836.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>DSC_0837.jpg</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>'DSC_0837.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>DSC_0838.jpg</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>'DSC_0838.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>DSC_0839.jpg</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>'DSC_0839.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>DSC_0843.jpg</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>'DSC_0843.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>DSC_0844.jpg</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>'DSC_0844.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>DSC_0845.jpg</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>'DSC_0845.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>DSC_0846.jpg</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>'DSC_0846.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>DSC_0847.jpg</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>'DSC_0847.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>DSC_0848.jpg</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>'DSC_0848.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>DSC_0851.jpg</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>'DSC_0851.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>DSC_0852.jpg</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>'DSC_0852.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>DSC_0854.jpg</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>'DSC_0854.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>DSC_0855.jpg</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>'DSC_0855.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>DSC_0857.jpg</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>'DSC_0857.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>DSC_0859.jpg</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>'DSC_0859.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>DSC_0860.jpg</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>'DSC_0860.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>DSC_0861.jpg</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>'DSC_0861.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>DSC_0863.jpg</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>'DSC_0863.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>DSC_0864.jpg</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>'DSC_0864.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>DSC_0866.jpg</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>'DSC_0866.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>DSC_0867.jpg</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>'DSC_0867.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>DSC_0868.jpg</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>'DSC_0868.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>DSC_0870.jpg</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>'DSC_0870.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>DSC_0871.jpg</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>'DSC_0871.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>DSC_0872.jpg</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>'DSC_0872.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>DSC_0873.jpg</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>'DSC_0873.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>DSC_0874.jpg</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>'DSC_0874.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>DSC_0875.jpg</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>'DSC_0875.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>DSC_0876.jpg</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>'DSC_0876.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>DSC_0877.jpg</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>'DSC_0877.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>DSC_0878.jpg</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>'DSC_0878.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>DSC_0880.jpg</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>'DSC_0880.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>DSC_0881.jpg</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>'DSC_0881.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>DSC_0882.jpg</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>'DSC_0882.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>DSC_0883.jpg</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>'DSC_0883.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>DSC_0885.jpg</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>'DSC_0885.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>DSC_0887.jpg</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>'DSC_0887.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>DSC_0888.jpg</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>'DSC_0888.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>DSC_0889.jpg</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>'DSC_0889.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>DSC_0890.jpg</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>'DSC_0890.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>DSC_0892.jpg</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>'DSC_0892.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>DSC_0893.jpg</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>'DSC_0893.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>DSC_0894.jpg</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>'DSC_0894.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>DSC_0896.jpg</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>'DSC_0896.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>DSC_0897.jpg</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>'DSC_0897.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>DSC_0898.jpg</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>'DSC_0898.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>DSC_0899.jpg</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>'DSC_0899.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>DSC_0900.jpg</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>'DSC_0900.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>DSC_0901.jpg</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>'DSC_0901.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>DSC_0902.jpg</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>'DSC_0902.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>DSC_0903.jpg</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>'DSC_0903.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>DSC_0904.jpg</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>'DSC_0904.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>DSC_0905.jpg</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>'DSC_0905.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>DSC_0906.jpg</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>'DSC_0906.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>DSC_0907.jpg</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>'DSC_0907.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>DSC_0909.jpg</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>'DSC_0909.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>DSC_0910.jpg</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>'DSC_0910.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>DSC_0911.jpg</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>'DSC_0911.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>DSC_0912.jpg</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>'DSC_0912.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>DSC_0913.jpg</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>'DSC_0913.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>DSC_0914.jpg</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>'DSC_0914.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>DSC_0915.jpg</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>'DSC_0915.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>DSC_0917.jpg</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>'DSC_0917.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>DSC_0918.jpg</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>'DSC_0918.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>DSC_0919.jpg</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>'DSC_0919.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>DSC_0920.jpg</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>'DSC_0920.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>DSC_0921.jpg</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>'DSC_0921.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>DSC_0922.jpg</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>'DSC_0922.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>DSC_0923.jpg</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>'DSC_0923.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>DSC_0925.jpg</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>'DSC_0925.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>DSC_0926.jpg</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>'DSC_0926.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>DSC_0927.jpg</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>'DSC_0927.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>DSC_0928.jpg</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>'DSC_0928.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>DSC_0929.jpg</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>'DSC_0929.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>DSC_0930.jpg</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>'DSC_0930.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>DSC_0931.jpg</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>'DSC_0931.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>DSC_0932.jpg</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>'DSC_0932.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>DSC_0934.jpg</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>'DSC_0934.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>DSC_0935.jpg</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>'DSC_0935.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>DSC_0936.jpg</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>'DSC_0936.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>DSC_0941.jpg</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>'DSC_0941.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>DSC_0945.jpg</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>'DSC_0945.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>DSC_0946.jpg</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>'DSC_0946.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>DSC_0947.jpg</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>'DSC_0947.jpg',</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
           <t>index.html</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B521" t="inlineStr">
         <is>
           <t>'index.html',</t>
         </is>
